--- a/Lab2/lab2.xlsx
+++ b/Lab2/lab2.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Code\Python\Labs\IAD_Lab_1\Lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Code\Python\Labs\IAD\IAD_Lab_1\IAD_Lab_1\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B387A51-D17A-4DCD-A392-54D110980251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765741D6-6B0C-4B62-B0DB-6D1A56CBBE5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Europe1999" sheetId="3" r:id="rId2"/>
+    <sheet name="Europe2006" sheetId="4" r:id="rId3"/>
+    <sheet name="Europe2011" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +47,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -60,7 +75,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -79,20 +94,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B1CCA821-C484-4314-951E-C2D9F61F1CE1}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{E0D76080-9225-4D46-983E-7F897296274C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -369,1385 +410,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:BD8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1">
-        <v>6</v>
-      </c>
-      <c r="P1" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>6</v>
-      </c>
-      <c r="R1" s="1">
-        <v>7</v>
-      </c>
-      <c r="S1" s="1">
-        <v>6</v>
-      </c>
-      <c r="T1" s="1">
-        <v>7</v>
-      </c>
-      <c r="U1" s="1">
-        <v>6</v>
-      </c>
-      <c r="V1" s="1">
-        <v>7</v>
-      </c>
-      <c r="W1" s="1">
-        <v>6</v>
-      </c>
-      <c r="X1" s="1">
-        <v>7</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>7</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>6</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>7</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>6</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>7</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>6</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>6</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>7</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>7</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>6</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>7</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>6</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>7</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>6</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>7</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>6</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>7</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>6</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>7</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>7</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>6</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>7</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>6</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>7</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>6</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>150</v>
-      </c>
-      <c r="B2" s="1">
-        <v>150</v>
-      </c>
-      <c r="C2" s="1">
-        <v>170</v>
-      </c>
-      <c r="D2" s="1">
-        <v>170</v>
-      </c>
-      <c r="E2" s="1">
-        <v>150</v>
-      </c>
-      <c r="F2" s="1">
-        <v>150</v>
-      </c>
-      <c r="G2" s="1">
-        <v>170</v>
-      </c>
-      <c r="H2" s="1">
-        <v>170</v>
-      </c>
-      <c r="I2" s="1">
-        <v>150</v>
-      </c>
-      <c r="J2" s="1">
-        <v>150</v>
-      </c>
-      <c r="K2" s="1">
-        <v>170</v>
-      </c>
-      <c r="L2" s="1">
-        <v>170</v>
-      </c>
-      <c r="M2" s="1">
-        <v>150</v>
-      </c>
-      <c r="N2" s="1">
-        <v>150</v>
-      </c>
-      <c r="O2" s="1">
-        <v>170</v>
-      </c>
-      <c r="P2" s="1">
-        <v>170</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>150</v>
-      </c>
-      <c r="R2" s="1">
-        <v>150</v>
-      </c>
-      <c r="S2" s="1">
-        <v>170</v>
-      </c>
-      <c r="T2" s="1">
-        <v>170</v>
-      </c>
-      <c r="U2" s="1">
-        <v>150</v>
-      </c>
-      <c r="V2" s="1">
-        <v>150</v>
-      </c>
-      <c r="W2" s="1">
-        <v>170</v>
-      </c>
-      <c r="X2" s="1">
-        <v>170</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>150</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>170</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>170</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>170</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>170</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>170</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>170</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>170</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>170</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>170</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>170</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>170</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>170</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AY2" s="1">
-        <v>170</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>170</v>
-      </c>
-      <c r="BA2" s="1">
-        <v>150</v>
-      </c>
-      <c r="BB2" s="1">
-        <v>150</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>170</v>
-      </c>
-      <c r="BD2" s="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="O3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="P3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="U3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="V3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="W3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="X3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="AW3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="AX3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="AY3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="AZ3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="BA3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="BB3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="BC3" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="BD3" s="1">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1">
-        <v>36</v>
-      </c>
-      <c r="J4" s="1">
-        <v>36</v>
-      </c>
-      <c r="K4" s="1">
-        <v>36</v>
-      </c>
-      <c r="L4" s="1">
-        <v>36</v>
-      </c>
-      <c r="M4" s="1">
-        <v>36</v>
-      </c>
-      <c r="N4" s="1">
-        <v>36</v>
-      </c>
-      <c r="O4" s="1">
-        <v>36</v>
-      </c>
-      <c r="P4" s="1">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>24</v>
-      </c>
-      <c r="R4" s="1">
-        <v>24</v>
-      </c>
-      <c r="S4" s="1">
-        <v>24</v>
-      </c>
-      <c r="T4" s="1">
-        <v>24</v>
-      </c>
-      <c r="U4" s="1">
-        <v>24</v>
-      </c>
-      <c r="V4" s="1">
-        <v>24</v>
-      </c>
-      <c r="W4" s="1">
-        <v>24</v>
-      </c>
-      <c r="X4" s="1">
-        <v>24</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>36</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>36</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>36</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>36</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>36</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>36</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>36</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>24</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>24</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>24</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>24</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>24</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>24</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>24</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>24</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>36</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>36</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>36</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>36</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>36</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>36</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>36</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>36</v>
-      </c>
-      <c r="AW4" s="1">
-        <v>24</v>
-      </c>
-      <c r="AX4" s="1">
-        <v>24</v>
-      </c>
-      <c r="AY4" s="1">
-        <v>24</v>
-      </c>
-      <c r="AZ4" s="1">
-        <v>24</v>
-      </c>
-      <c r="BA4" s="1">
-        <v>24</v>
-      </c>
-      <c r="BB4" s="1">
-        <v>24</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>24</v>
-      </c>
-      <c r="BD4" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1">
-        <v>30</v>
-      </c>
-      <c r="K5" s="1">
-        <v>30</v>
-      </c>
-      <c r="L5" s="1">
-        <v>30</v>
-      </c>
-      <c r="M5" s="1">
-        <v>30</v>
-      </c>
-      <c r="N5" s="1">
-        <v>30</v>
-      </c>
-      <c r="O5" s="1">
-        <v>30</v>
-      </c>
-      <c r="P5" s="1">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>42</v>
-      </c>
-      <c r="R5" s="1">
-        <v>42</v>
-      </c>
-      <c r="S5" s="1">
-        <v>42</v>
-      </c>
-      <c r="T5" s="1">
-        <v>42</v>
-      </c>
-      <c r="U5" s="1">
-        <v>42</v>
-      </c>
-      <c r="V5" s="1">
-        <v>42</v>
-      </c>
-      <c r="W5" s="1">
-        <v>42</v>
-      </c>
-      <c r="X5" s="1">
-        <v>42</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>42</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>42</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>42</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>42</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>42</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>42</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>42</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>42</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>30</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>30</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>30</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>30</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>30</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>30</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>30</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>30</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>30</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>30</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>30</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>30</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>30</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>30</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>30</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>30</v>
-      </c>
-      <c r="AW5" s="1">
-        <v>42</v>
-      </c>
-      <c r="AX5" s="1">
-        <v>42</v>
-      </c>
-      <c r="AY5" s="1">
-        <v>42</v>
-      </c>
-      <c r="AZ5" s="1">
-        <v>42</v>
-      </c>
-      <c r="BA5" s="1">
-        <v>42</v>
-      </c>
-      <c r="BB5" s="1">
-        <v>42</v>
-      </c>
-      <c r="BC5" s="1">
-        <v>42</v>
-      </c>
-      <c r="BD5" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>120</v>
-      </c>
-      <c r="B6" s="1">
-        <v>120</v>
-      </c>
-      <c r="C6" s="1">
-        <v>120</v>
-      </c>
-      <c r="D6" s="1">
-        <v>120</v>
-      </c>
-      <c r="E6" s="1">
-        <v>120</v>
-      </c>
-      <c r="F6" s="1">
-        <v>120</v>
-      </c>
-      <c r="G6" s="1">
-        <v>120</v>
-      </c>
-      <c r="H6" s="1">
-        <v>120</v>
-      </c>
-      <c r="I6" s="1">
-        <v>120</v>
-      </c>
-      <c r="J6" s="1">
-        <v>120</v>
-      </c>
-      <c r="K6" s="1">
-        <v>120</v>
-      </c>
-      <c r="L6" s="1">
-        <v>120</v>
-      </c>
-      <c r="M6" s="1">
-        <v>120</v>
-      </c>
-      <c r="N6" s="1">
-        <v>120</v>
-      </c>
-      <c r="O6" s="1">
-        <v>120</v>
-      </c>
-      <c r="P6" s="1">
-        <v>120</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>120</v>
-      </c>
-      <c r="R6" s="1">
-        <v>120</v>
-      </c>
-      <c r="S6" s="1">
-        <v>120</v>
-      </c>
-      <c r="T6" s="1">
-        <v>120</v>
-      </c>
-      <c r="U6" s="1">
-        <v>120</v>
-      </c>
-      <c r="V6" s="1">
-        <v>120</v>
-      </c>
-      <c r="W6" s="1">
-        <v>120</v>
-      </c>
-      <c r="X6" s="1">
-        <v>120</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>120</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>120</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>120</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>120</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>120</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>120</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>120</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>120</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AW6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AX6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AY6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AZ6" s="1">
-        <v>130</v>
-      </c>
-      <c r="BA6" s="1">
-        <v>130</v>
-      </c>
-      <c r="BB6" s="1">
-        <v>130</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>130</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="G7" s="1">
-        <v>10.3</v>
-      </c>
-      <c r="H7" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="I7" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="J7" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="K7" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="L7" s="1">
-        <v>17.2</v>
-      </c>
-      <c r="M7" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="N7" s="1">
-        <v>12.1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="P7" s="1">
-        <v>15.8</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="R7" s="1">
-        <v>8</v>
-      </c>
-      <c r="S7" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="T7" s="1">
-        <v>10.7</v>
-      </c>
-      <c r="U7" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="V7" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="W7" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="X7" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>10.3</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>15.1</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>12.1</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>12.6</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>11.3</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>11.1</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>12.9</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>14.6</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>12.7</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>10.8</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>13.6</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>14.6</v>
-      </c>
-      <c r="AU7" s="1">
-        <v>13.3</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>14.4</v>
-      </c>
-      <c r="AW7" s="1">
-        <v>11</v>
-      </c>
-      <c r="AX7" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="AY7" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="AZ7" s="1">
-        <v>13.1</v>
-      </c>
-      <c r="BA7" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="BB7" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="BC7" s="1">
-        <v>11.8</v>
-      </c>
-      <c r="BD7" s="1">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>23</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>11</v>
-      </c>
-      <c r="L8" s="1">
-        <v>5</v>
-      </c>
-      <c r="M8" s="1">
-        <v>15</v>
-      </c>
-      <c r="N8" s="1">
-        <v>8</v>
-      </c>
-      <c r="O8" s="1">
-        <v>15</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>22</v>
-      </c>
-      <c r="R8" s="1">
-        <v>8</v>
-      </c>
-      <c r="S8" s="1">
-        <v>16</v>
-      </c>
-      <c r="T8" s="1">
-        <v>7</v>
-      </c>
-      <c r="U8" s="1">
-        <v>25</v>
-      </c>
-      <c r="V8" s="1">
-        <v>5</v>
-      </c>
-      <c r="W8" s="1">
-        <v>17</v>
-      </c>
-      <c r="X8" s="1">
-        <v>8</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>22</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>6</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>24</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>10</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>5</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>32</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>28</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>18</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>22</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>31</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>17</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>16</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>38</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>12</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>34</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>19</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>12</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>14</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>25</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>16</v>
-      </c>
-      <c r="AW8" s="1">
-        <v>31</v>
-      </c>
-      <c r="AX8" s="1">
-        <v>14</v>
-      </c>
-      <c r="AY8" s="1">
-        <v>23</v>
-      </c>
-      <c r="AZ8" s="1">
-        <v>23</v>
-      </c>
-      <c r="BA8" s="1">
-        <v>28</v>
-      </c>
-      <c r="BB8" s="1">
-        <v>20</v>
-      </c>
-      <c r="BC8" s="1">
-        <v>18</v>
-      </c>
-      <c r="BD8" s="1">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3EB681-6600-4EE1-96BA-332BD535DA03}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H56"/>
     </sheetView>
   </sheetViews>
@@ -3212,4 +1878,6610 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C26901-6CB0-4335-8FCA-A8D29CC2599D}">
+  <dimension ref="A1:Y27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Y27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>573.40000018410001</v>
+      </c>
+      <c r="B1" s="2">
+        <v>15.433010008857478</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.41999999870999999</v>
+      </c>
+      <c r="D1" s="2">
+        <v>31.042220011396008</v>
+      </c>
+      <c r="E1" s="2">
+        <v>34.242739971165058</v>
+      </c>
+      <c r="F1" s="2">
+        <v>34.339999974280005</v>
+      </c>
+      <c r="G1" s="2">
+        <v>123.66005544316563</v>
+      </c>
+      <c r="H1" s="2">
+        <v>41.240000425999995</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2.4399999891000004</v>
+      </c>
+      <c r="J1" s="2">
+        <v>0.71000000009999997</v>
+      </c>
+      <c r="K1" s="2">
+        <v>0.33000000010999997</v>
+      </c>
+      <c r="L1" s="2">
+        <v>8.999999991999999E-2</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2.9999999919999999E-2</v>
+      </c>
+      <c r="N1" s="2">
+        <v>0.17999999064</v>
+      </c>
+      <c r="O1" s="2">
+        <v>59.640000016049996</v>
+      </c>
+      <c r="P1" s="2">
+        <v>86.705600029524277</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>121.9351999724845</v>
+      </c>
+      <c r="R1" s="2">
+        <v>8.3399999960399995</v>
+      </c>
+      <c r="S1" s="2">
+        <v>79.877239875139736</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2.4259999998050001</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2.2239999995599997</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2.9400000362080001</v>
+      </c>
+      <c r="W1" s="2">
+        <v>15.5554605504307</v>
+      </c>
+      <c r="X1" s="2">
+        <v>0.1213663991604767</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>26563.209538773921</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1038.8999998766999</v>
+      </c>
+      <c r="B2" s="2">
+        <v>82.787950007010053</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.85000000202</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43.031989999009106</v>
+      </c>
+      <c r="E2" s="2">
+        <v>97.334029999999998</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45.14999997508</v>
+      </c>
+      <c r="G2" s="2">
+        <v>136.92486097888937</v>
+      </c>
+      <c r="H2" s="2">
+        <v>78.730000294199996</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3.0000000018500002</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.6599999997799999</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="L2" s="2">
+        <v>6.9999999399999999E-2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>9.8100000020199989</v>
+      </c>
+      <c r="O2" s="2">
+        <v>58.770000001420001</v>
+      </c>
+      <c r="P2" s="2">
+        <v>48.683400029773765</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>127.92960005249194</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1.45999999774</v>
+      </c>
+      <c r="S2" s="2">
+        <v>82.730850059932408</v>
+      </c>
+      <c r="T2" s="2">
+        <v>4.1969999939890004</v>
+      </c>
+      <c r="U2" s="2">
+        <v>2.3679999988239997</v>
+      </c>
+      <c r="V2" s="2">
+        <v>5.5100000099189996</v>
+      </c>
+      <c r="W2" s="2">
+        <v>72.667748085312979</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.16819179997221359</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>24886.865657028986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>485.38059407114099</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6.2276559789558501</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.2484243723608299</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18.343117847099165</v>
+      </c>
+      <c r="E3" s="2">
+        <v>28.719849668601196</v>
+      </c>
+      <c r="F3" s="2">
+        <v>18.606871890601219</v>
+      </c>
+      <c r="G3" s="2">
+        <v>14.975056388609016</v>
+      </c>
+      <c r="H3" s="2">
+        <v>9.7299997758500005</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.33999999790000002</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.34852902367547151</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.4731021875118479</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.22999999941999999</v>
+      </c>
+      <c r="M3" s="2">
+        <v>6.8048991300819511E-2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>8.5499999963200004</v>
+      </c>
+      <c r="O3" s="2">
+        <v>52.880000031430001</v>
+      </c>
+      <c r="P3" s="2">
+        <v>28.809789942680261</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>16.300889985281138</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="S3" s="2">
+        <v>20.443349983821889</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.10999999714200001</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1.0919999988239999</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.61700000243300002</v>
+      </c>
+      <c r="W3" s="2">
+        <v>5.3390459167508704</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1.0084500012150532</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1611.1289949564605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1014.4000002147</v>
+      </c>
+      <c r="B4" s="2">
+        <v>47.531589980751676</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.0637154586127662</v>
+      </c>
+      <c r="D4" s="2">
+        <v>39.687768530967112</v>
+      </c>
+      <c r="E4" s="2">
+        <v>32.009623592627591</v>
+      </c>
+      <c r="F4" s="2">
+        <v>15.339999978160002</v>
+      </c>
+      <c r="G4" s="2">
+        <v>235.62544305515746</v>
+      </c>
+      <c r="H4" s="2">
+        <v>73.850000366649994</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3.9400000013000005</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.29000000009</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.39031267391713792</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.10843950238187679</v>
+      </c>
+      <c r="N4" s="2">
+        <v>8.2489440198176194</v>
+      </c>
+      <c r="O4" s="2">
+        <v>61.360000000439996</v>
+      </c>
+      <c r="P4" s="2">
+        <v>153.0513</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>163.60769999999999</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.44000000023999997</v>
+      </c>
+      <c r="S4" s="2">
+        <v>146.71319989817283</v>
+      </c>
+      <c r="T4" s="2">
+        <v>6.3880000002200008</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1.555999999288</v>
+      </c>
+      <c r="V4" s="2">
+        <v>27.338938589067016</v>
+      </c>
+      <c r="W4" s="2">
+        <v>71.086748552686984</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.6482954010546077</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>14236.941527544668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>417.60000033689994</v>
+      </c>
+      <c r="B5" s="2">
+        <v>18.547269912701527</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.3837555750556942</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5.7373449932622123</v>
+      </c>
+      <c r="E5" s="2">
+        <v>18.670939976039666</v>
+      </c>
+      <c r="F5" s="2">
+        <v>19.978427846300313</v>
+      </c>
+      <c r="G5" s="2">
+        <v>52.87561373694146</v>
+      </c>
+      <c r="H5" s="2">
+        <v>15.75000030855</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.1800000008500002</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.38999999967999999</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.34999999981999996</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.17000000062000001</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5.0000000079999996E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>4.2017840129792177</v>
+      </c>
+      <c r="O5" s="2">
+        <v>51.32999999354999</v>
+      </c>
+      <c r="P5" s="2">
+        <v>59.209110024959259</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>58.794339960551831</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1.5099999965799999</v>
+      </c>
+      <c r="S5" s="2">
+        <v>52.26555998223008</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1.1190000050319999</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1.834999999776</v>
+      </c>
+      <c r="V5" s="2">
+        <v>2.2689999924820001</v>
+      </c>
+      <c r="W5" s="2">
+        <v>18.975825715152602</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.1594731993043394</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>6044.9811251271931</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>760.09999966739997</v>
+      </c>
+      <c r="B6" s="2">
+        <v>57.6816499834487</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.74999999825999997</v>
+      </c>
+      <c r="D6" s="2">
+        <v>98.034480000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>55.38844004221334</v>
+      </c>
+      <c r="F6" s="2">
+        <v>16.099999990360001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>57.483964581490639</v>
+      </c>
+      <c r="H6" s="2">
+        <v>37.850000247050005</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2.3399999926000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.41404023949684871</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.4400000006</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.43000000047999992</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5.0000000079999996E-2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2.6500000059399995</v>
+      </c>
+      <c r="O6" s="2">
+        <v>43.109999975289995</v>
+      </c>
+      <c r="P6" s="2">
+        <v>56.460689940970596</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>39.768199944705017</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1.3400000037799999</v>
+      </c>
+      <c r="S6" s="2">
+        <v>52.963149914692686</v>
+      </c>
+      <c r="T6" s="2">
+        <v>4.6329999958670003</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1.9060000007600002</v>
+      </c>
+      <c r="V6" s="2">
+        <v>27.187000005752999</v>
+      </c>
+      <c r="W6" s="2">
+        <v>60.532275484141145</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.43782190097602458</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>32685.318938505989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>301.9999999767</v>
+      </c>
+      <c r="B7" s="2">
+        <v>19.90527994681295</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.8065602701953893</v>
+      </c>
+      <c r="D7" s="2">
+        <v>20.699087683996893</v>
+      </c>
+      <c r="E7" s="2">
+        <v>38.037469364759026</v>
+      </c>
+      <c r="F7" s="2">
+        <v>21.20005756319787</v>
+      </c>
+      <c r="G7" s="2">
+        <v>31.011745778867077</v>
+      </c>
+      <c r="H7" s="2">
+        <v>37.39999998535</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.55999999020000002</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.12999999994</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.36000000036999996</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.29175347236962879</v>
+      </c>
+      <c r="M7" s="2">
+        <v>7.7140224269053828E-2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1.9999999873199998</v>
+      </c>
+      <c r="O7" s="2">
+        <v>77.060000037239988</v>
+      </c>
+      <c r="P7" s="2">
+        <v>49.447274891482202</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>32.268779948301955</v>
+      </c>
+      <c r="R7" s="2">
+        <v>3.6700000018199996</v>
+      </c>
+      <c r="S7" s="2">
+        <v>22.369739941011627</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.24299999462100003</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1.2669999995600001</v>
+      </c>
+      <c r="V7" s="2">
+        <v>3.1999982663000005E-2</v>
+      </c>
+      <c r="W7" s="2">
+        <v>31.341075731561084</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0.18173169888082941</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>4150.0337238504217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>548.40000050820004</v>
+      </c>
+      <c r="B8" s="2">
+        <v>190.39760000000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.3000000033899997</v>
+      </c>
+      <c r="D8" s="2">
+        <v>24.962159954597833</v>
+      </c>
+      <c r="E8" s="2">
+        <v>35.800879960491137</v>
+      </c>
+      <c r="F8" s="2">
+        <v>31.22999999548</v>
+      </c>
+      <c r="G8" s="2">
+        <v>57.593544859118524</v>
+      </c>
+      <c r="H8" s="2">
+        <v>27.180000190400001</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.98000000785000008</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.34999999972000001</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.54999999970000002</v>
+      </c>
+      <c r="L8" s="2">
+        <v>5.0000000259999997E-2</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.11000000007999999</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2.4099999899999998</v>
+      </c>
+      <c r="O8" s="2">
+        <v>74.079999993489992</v>
+      </c>
+      <c r="P8" s="2">
+        <v>48.950989990339664</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>57.217519974035547</v>
+      </c>
+      <c r="R8" s="2">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="S8" s="2">
+        <v>46.614540111154845</v>
+      </c>
+      <c r="T8" s="2">
+        <v>2.5749999993779999</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1.7239999992799999</v>
+      </c>
+      <c r="V8" s="2">
+        <v>49.474999988030007</v>
+      </c>
+      <c r="W8" s="2">
+        <v>268.11007306375842</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0.28458179987277499</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>25229.595834135209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>872.19999993030001</v>
+      </c>
+      <c r="B9" s="2">
+        <v>82.954440027486314</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.95000000252999994</v>
+      </c>
+      <c r="D9" s="2">
+        <v>35.057369997524589</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43.354970033507634</v>
+      </c>
+      <c r="F9" s="2">
+        <v>18.309999994000002</v>
+      </c>
+      <c r="G9" s="2">
+        <v>103.89177459473682</v>
+      </c>
+      <c r="H9" s="2">
+        <v>27.079999939500002</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2.6500000140999997</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.57999999986000006</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.59000000051000001</v>
+      </c>
+      <c r="L9" s="2">
+        <v>6.9999999399999999E-2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.11999999991999999</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1.6400000153999998</v>
+      </c>
+      <c r="O9" s="2">
+        <v>34.95999999547</v>
+      </c>
+      <c r="P9" s="2">
+        <v>35.275880051229343</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>101.50179996284605</v>
+      </c>
+      <c r="R9" s="2">
+        <v>3.9800000011399992</v>
+      </c>
+      <c r="S9" s="2">
+        <v>61.771900125625599</v>
+      </c>
+      <c r="T9" s="2">
+        <v>5.4690000010429998</v>
+      </c>
+      <c r="U9" s="2">
+        <v>2.1800000003519995</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1.9000050635000001E-2</v>
+      </c>
+      <c r="W9" s="2">
+        <v>101.30635299883112</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0.1600123007697139</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>24075.043411469822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>744.79999964969988</v>
+      </c>
+      <c r="B10" s="2">
+        <v>58.164310041905203</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.22000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>58.723190047068492</v>
+      </c>
+      <c r="E10" s="2">
+        <v>29.089150032559711</v>
+      </c>
+      <c r="F10" s="2">
+        <v>33.029999997280008</v>
+      </c>
+      <c r="G10" s="2">
+        <v>145.80000006178525</v>
+      </c>
+      <c r="H10" s="2">
+        <v>28.219999677300002</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2.8400000074500005</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.59999999984000008</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.48000000001999998</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.11999999931999999</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1.85999999824</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22.679999961650001</v>
+      </c>
+      <c r="P10" s="2">
+        <v>85.617900005444255</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>147.41489993180281</v>
+      </c>
+      <c r="R10" s="2">
+        <v>5.1500000032999989</v>
+      </c>
+      <c r="S10" s="2">
+        <v>78.409559942961337</v>
+      </c>
+      <c r="T10" s="2">
+        <v>2.9410000012920001</v>
+      </c>
+      <c r="U10" s="2">
+        <v>2.1859999998959996</v>
+      </c>
+      <c r="V10" s="2">
+        <v>3.4420000400170001</v>
+      </c>
+      <c r="W10" s="2">
+        <v>67.205971813481639</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0.1136415997457723</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>25956.637423595439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>628.20000028079994</v>
+      </c>
+      <c r="B11" s="2">
+        <v>103.21740007795104</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.0500000007199999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.53708399401628204</v>
+      </c>
+      <c r="E11" s="2">
+        <v>67.648519971865682</v>
+      </c>
+      <c r="F11" s="2">
+        <v>19.449999986559998</v>
+      </c>
+      <c r="G11" s="2">
+        <v>84.493428682479987</v>
+      </c>
+      <c r="H11" s="2">
+        <v>40.36999980440001</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1.3699999942000001</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.67000000013999994</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1.27000000038</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5.0000000079999996E-2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.13999999376</v>
+      </c>
+      <c r="O11" s="2">
+        <v>39.710000017179993</v>
+      </c>
+      <c r="P11" s="2">
+        <v>55.327199980998543</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>63.907990055524806</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1.9499999961399996</v>
+      </c>
+      <c r="S11" s="2">
+        <v>48.572540098824838</v>
+      </c>
+      <c r="T11" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="U11" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>153.32733285775211</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0.25821080005591318</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>12238.593380803115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>345.19999954709999</v>
+      </c>
+      <c r="B12" s="2">
+        <v>30.564729927557728</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.2434786438798997</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4.8621459561488285</v>
+      </c>
+      <c r="E12" s="2">
+        <v>32.380960002777648</v>
+      </c>
+      <c r="F12" s="2">
+        <v>25.90000002304</v>
+      </c>
+      <c r="G12" s="2">
+        <v>52.945113533782532</v>
+      </c>
+      <c r="H12" s="2">
+        <v>33.7899999483</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.64999998705000006</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.26000000018000002</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.23000000017</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.22999999941999999</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1.1099999874199999</v>
+      </c>
+      <c r="O12" s="2">
+        <v>32.490000028459995</v>
+      </c>
+      <c r="P12" s="2">
+        <v>44.038410037225759</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>34.579810025069236</v>
+      </c>
+      <c r="R12" s="2">
+        <v>2.80999999898</v>
+      </c>
+      <c r="S12" s="2">
+        <v>37.0855301099092</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1.050000003666</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1.495000000096</v>
+      </c>
+      <c r="V12" s="2">
+        <v>3.8859999918730006</v>
+      </c>
+      <c r="W12" s="2">
+        <v>33.81496351093903</v>
+      </c>
+      <c r="X12" s="2">
+        <v>6.4468700936206894E-2</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>4713.5404493276828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>636.38295596002558</v>
+      </c>
+      <c r="B13" s="2">
+        <v>68.101549983784508</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.4799999961399997</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6.0438700151811604</v>
+      </c>
+      <c r="E13" s="2">
+        <v>25.483869970407376</v>
+      </c>
+      <c r="F13" s="2">
+        <v>30.640000019199999</v>
+      </c>
+      <c r="G13" s="2">
+        <v>103.20492568640648</v>
+      </c>
+      <c r="H13" s="2">
+        <v>112.45000007085</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3.3099999910000006</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.43984297812346596</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.67391155008420578</v>
+      </c>
+      <c r="L13" s="2">
+        <v>6.9999999399999999E-2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>8.999999991999999E-2</v>
+      </c>
+      <c r="N13" s="2">
+        <v>4.8700000060799997</v>
+      </c>
+      <c r="O13" s="2">
+        <v>50.950000010789992</v>
+      </c>
+      <c r="P13" s="2">
+        <v>75.736460040343786</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>94.535849961537949</v>
+      </c>
+      <c r="R13" s="2">
+        <v>2.5300000022199995</v>
+      </c>
+      <c r="S13" s="2">
+        <v>70.599749914686441</v>
+      </c>
+      <c r="T13" s="2">
+        <v>6.3860000030239998</v>
+      </c>
+      <c r="U13" s="2">
+        <v>2.391999999552</v>
+      </c>
+      <c r="V13" s="2">
+        <v>43.739999994188004</v>
+      </c>
+      <c r="W13" s="2">
+        <v>71.182647562527478</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0.2237145000033498</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>25731.117153697094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>629.10000010199997</v>
+      </c>
+      <c r="B14" s="2">
+        <v>52.741669911490327</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.86000000336999993</v>
+      </c>
+      <c r="D14" s="2">
+        <v>29.304059978565324</v>
+      </c>
+      <c r="E14" s="2">
+        <v>91.395939989457332</v>
+      </c>
+      <c r="F14" s="2">
+        <v>12.77000002564</v>
+      </c>
+      <c r="G14" s="2">
+        <v>93.341251468156941</v>
+      </c>
+      <c r="H14" s="2">
+        <v>33.210000401249999</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1.4499999914000001</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.53999999990000003</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.1599999998899999</v>
+      </c>
+      <c r="L14" s="2">
+        <v>6.0000000519999999E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>5.0000000079999996E-2</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.93000000146000006</v>
+      </c>
+      <c r="O14" s="2">
+        <v>24.23999998243</v>
+      </c>
+      <c r="P14" s="2">
+        <v>53.148859947665308</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>82.40375000035587</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1.1599999965599999</v>
+      </c>
+      <c r="S14" s="2">
+        <v>45.714000010193296</v>
+      </c>
+      <c r="T14" s="2">
+        <v>3.143000000137</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1.9990000000719998</v>
+      </c>
+      <c r="V14" s="2">
+        <v>2.2450000311390004</v>
+      </c>
+      <c r="W14" s="2">
+        <v>60.278527566957301</v>
+      </c>
+      <c r="X14" s="2">
+        <v>4.7438099999999997E-2</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>21227.310860844824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>184.09999996019999</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5.3345859214179008</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.1488154714055252</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20.523967342288366</v>
+      </c>
+      <c r="E15" s="2">
+        <v>31.498244872405454</v>
+      </c>
+      <c r="F15" s="2">
+        <v>18.28699063012558</v>
+      </c>
+      <c r="G15" s="2">
+        <v>17.797099371641931</v>
+      </c>
+      <c r="H15" s="2">
+        <v>10.8000000319</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.79000001450000001</v>
+      </c>
+      <c r="J15" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.16999999965000001</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.22000000053999999</v>
+      </c>
+      <c r="M15" s="2">
+        <v>6.8293716745825114E-2</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.27999998283999999</v>
+      </c>
+      <c r="O15" s="2">
+        <v>46.270000027519998</v>
+      </c>
+      <c r="P15" s="2">
+        <v>23.45084001039816</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>17.72784003035807</v>
+      </c>
+      <c r="R15" s="2">
+        <v>1.4400000014599998</v>
+      </c>
+      <c r="S15" s="2">
+        <v>14.958390092470191</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0.158000003424</v>
+      </c>
+      <c r="U15" s="2">
+        <v>1.6789999988719999</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0.23900002123300002</v>
+      </c>
+      <c r="W15" s="2">
+        <v>5.362647952359449</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0.2928280000151175</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>3048.9769244816734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>178.2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>10.118439913121676</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.5505332879510136</v>
+      </c>
+      <c r="D16" s="2">
+        <v>17.521685790912748</v>
+      </c>
+      <c r="E16" s="2">
+        <v>31.5837752279329</v>
+      </c>
+      <c r="F16" s="2">
+        <v>19.944112065268328</v>
+      </c>
+      <c r="G16" s="2">
+        <v>16.165931900242846</v>
+      </c>
+      <c r="H16" s="2">
+        <v>11.410000348100001</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.31999999860000006</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.10000000034000001</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.18999999936</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.17999999950000001</v>
+      </c>
+      <c r="M16" s="2">
+        <v>7.1364251182942956E-2</v>
+      </c>
+      <c r="N16" s="2">
+        <v>3.8900000131999999</v>
+      </c>
+      <c r="O16" s="2">
+        <v>70.920000020329994</v>
+      </c>
+      <c r="P16" s="2">
+        <v>19.77908</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>18.103549938642111</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1.5300000009999997</v>
+      </c>
+      <c r="S16" s="2">
+        <v>13.413519867455781</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0.16900000026500001</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0.68900000010400009</v>
+      </c>
+      <c r="V16" s="2">
+        <v>19.948077838839076</v>
+      </c>
+      <c r="W16" s="2">
+        <v>10.376428663599558</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0.15322459968423158</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>3113.119784187912</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>778.88554008413666</v>
+      </c>
+      <c r="B17" s="2">
+        <v>164.38640002289168</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7.89</v>
+      </c>
+      <c r="D17" s="2">
+        <v>50.059238511452889</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.292062</v>
+      </c>
+      <c r="F17" s="2">
+        <v>42.480000019599998</v>
+      </c>
+      <c r="G17" s="2">
+        <v>90.000000031965939</v>
+      </c>
+      <c r="H17" s="2">
+        <v>875.51</v>
+      </c>
+      <c r="I17" s="2">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.55720379780971352</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.81935015910270192</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.13843804726621528</v>
+      </c>
+      <c r="N17" s="2">
+        <v>34.72</v>
+      </c>
+      <c r="O17" s="2">
+        <v>17.34</v>
+      </c>
+      <c r="P17" s="2">
+        <v>78.156485395856066</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>100.0381000123384</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.96000000120000006</v>
+      </c>
+      <c r="S17" s="2">
+        <v>289.53590000000003</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1.5019999953749998</v>
+      </c>
+      <c r="U17" s="2">
+        <v>2.5030000000479999</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0.33999998254699998</v>
+      </c>
+      <c r="W17" s="2">
+        <v>169.64613237938769</v>
+      </c>
+      <c r="X17" s="2">
+        <v>1.1847379998329233</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>49213.967093446685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>616.18716275582199</v>
+      </c>
+      <c r="B18" s="2">
+        <v>33.928400035689279</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>31.510836300535352</v>
+      </c>
+      <c r="E18" s="2">
+        <v>33.99136460976716</v>
+      </c>
+      <c r="F18" s="2">
+        <v>26.464990706387287</v>
+      </c>
+      <c r="G18" s="2">
+        <v>129.38953332952178</v>
+      </c>
+      <c r="H18" s="2">
+        <v>94.55000026194999</v>
+      </c>
+      <c r="I18" s="2">
+        <v>3.6000000132000007</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.41965443087115056</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.57203106580715757</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.37327284115990722</v>
+      </c>
+      <c r="M18" s="2">
+        <v>9.7364707437756867E-2</v>
+      </c>
+      <c r="N18" s="2">
+        <v>6.1400000109999988</v>
+      </c>
+      <c r="O18" s="2">
+        <v>96.41</v>
+      </c>
+      <c r="P18" s="2">
+        <v>150.66599993696212</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>127.88130002810031</v>
+      </c>
+      <c r="R18" s="2">
+        <v>1.1599999965599999</v>
+      </c>
+      <c r="S18" s="2">
+        <v>124.41439988224057</v>
+      </c>
+      <c r="T18" s="2">
+        <v>1.5040000048339999</v>
+      </c>
+      <c r="U18" s="2">
+        <v>1.8389999994719999</v>
+      </c>
+      <c r="V18" s="2">
+        <v>31.019650791610211</v>
+      </c>
+      <c r="W18" s="2">
+        <v>49.01846032158921</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0.18452130054054822</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>10301.423261859471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1197.3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>155.36810006840736</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3.6899999971199997</v>
+      </c>
+      <c r="D19" s="2">
+        <v>36.986399996421937</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45.768939987079364</v>
+      </c>
+      <c r="F19" s="2">
+        <v>54.34</v>
+      </c>
+      <c r="G19" s="2">
+        <v>142.20532216854107</v>
+      </c>
+      <c r="H19" s="2">
+        <v>58.440000213299996</v>
+      </c>
+      <c r="I19" s="2">
+        <v>3.5500000149500002</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.49999999994</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.81000000010000006</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.10000000017999999</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.23000000007999999</v>
+      </c>
+      <c r="N19" s="2">
+        <v>9.4799999930999999</v>
+      </c>
+      <c r="O19" s="2">
+        <v>81.28000001641</v>
+      </c>
+      <c r="P19" s="2">
+        <v>49.185570021278203</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>139.97360000673876</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1.76999999706</v>
+      </c>
+      <c r="S19" s="2">
+        <v>87.625199887364559</v>
+      </c>
+      <c r="T19" s="2">
+        <v>5.1890000011869999</v>
+      </c>
+      <c r="U19" s="2">
+        <v>1.7809999987759999</v>
+      </c>
+      <c r="V19" s="2">
+        <v>102.617</v>
+      </c>
+      <c r="W19" s="2">
+        <v>168.96297108146433</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0.13407460004996841</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>26021.637673042256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>248.40000032099999</v>
+      </c>
+      <c r="B20" s="2">
+        <v>14.067509948105251</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.1547398877517527</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.1512916</v>
+      </c>
+      <c r="E20" s="2">
+        <v>19.663649999590639</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="G20" s="2">
+        <v>36.349661902052524</v>
+      </c>
+      <c r="H20" s="2">
+        <v>9.8800001522000009</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.54999999055000004</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.24999999982000001</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.16000000048999999</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.1867087856267878</v>
+      </c>
+      <c r="M20" s="2">
+        <v>8.999999991999999E-2</v>
+      </c>
+      <c r="N20" s="2">
+        <v>2.2100000056</v>
+      </c>
+      <c r="O20" s="2">
+        <v>39.150000025939995</v>
+      </c>
+      <c r="P20" s="2">
+        <v>37.414999936027662</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>32.504329936888617</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0.96000000120000006</v>
+      </c>
+      <c r="S20" s="2">
+        <v>32.271770069804518</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0.8860000005969999</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1.5890000006080001</v>
+      </c>
+      <c r="V20" s="2">
+        <v>2.4300000110790001</v>
+      </c>
+      <c r="W20" s="2">
+        <v>17.626038942844424</v>
+      </c>
+      <c r="X20" s="2">
+        <v>5.7164599403370001E-2</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>4340.4183517476777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>759.69999986009998</v>
+      </c>
+      <c r="B21" s="2">
+        <v>49.859320070495158</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.4199999963900001</v>
+      </c>
+      <c r="D21" s="2">
+        <v>19.369099984826761</v>
+      </c>
+      <c r="E21" s="2">
+        <v>29.211660008944801</v>
+      </c>
+      <c r="F21" s="2">
+        <v>18.829999988800001</v>
+      </c>
+      <c r="G21" s="2">
+        <v>110.39647275188482</v>
+      </c>
+      <c r="H21" s="2">
+        <v>38.690000099500004</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2.1000000010000002</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.77000000004000002</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.82000000065</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.58000000023999998</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.16999999142</v>
+      </c>
+      <c r="O21" s="2">
+        <v>30.999999967049998</v>
+      </c>
+      <c r="P21" s="2">
+        <v>86.641489961182145</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>104.14150000947299</v>
+      </c>
+      <c r="R21" s="2">
+        <v>2.1499999996399994</v>
+      </c>
+      <c r="S21" s="2">
+        <v>81.664540024673101</v>
+      </c>
+      <c r="T21" s="2">
+        <v>3.1449999973329996</v>
+      </c>
+      <c r="U21" s="2">
+        <v>1.770999999536</v>
+      </c>
+      <c r="V21" s="2">
+        <v>11.465999977024001</v>
+      </c>
+      <c r="W21" s="2">
+        <v>52.591435370825259</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0.12288700093505639</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>12428.672509128342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>248.80000012829998</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2.092425</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.3808672158679982</v>
+      </c>
+      <c r="D22" s="2">
+        <v>17.808844575697879</v>
+      </c>
+      <c r="E22" s="2">
+        <v>29.755088555519464</v>
+      </c>
+      <c r="F22" s="2">
+        <v>19.611841217488649</v>
+      </c>
+      <c r="G22" s="2">
+        <v>17.827270884864326</v>
+      </c>
+      <c r="H22" s="2">
+        <v>8.16</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.10999999996000001</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.14999999993999999</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.11000000044</v>
+      </c>
+      <c r="M22" s="2">
+        <v>7.0548596479828959E-2</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1.2400000119399999</v>
+      </c>
+      <c r="O22" s="2">
+        <v>63.280000038180006</v>
+      </c>
+      <c r="P22" s="2">
+        <v>28.340079999623462</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>14.924989999999999</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.52000000163999993</v>
+      </c>
+      <c r="S22" s="2">
+        <v>18.320029892783964</v>
+      </c>
+      <c r="T22" s="2">
+        <v>9.1999997851999998E-2</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0.65199999908799999</v>
+      </c>
+      <c r="V22" s="2">
+        <v>17.626213896970974</v>
+      </c>
+      <c r="W22" s="2">
+        <v>2.453015653249802</v>
+      </c>
+      <c r="X22" s="2">
+        <v>2.5921099999999999</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>1583.8498455351814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>393.30000006899996</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3.3492820134256251</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.3337576170864152</v>
+      </c>
+      <c r="D23" s="2">
+        <v>24.965780007310201</v>
+      </c>
+      <c r="E23" s="2">
+        <v>9.6021609705498392</v>
+      </c>
+      <c r="F23" s="2">
+        <v>7.6800000191199995</v>
+      </c>
+      <c r="G23" s="2">
+        <v>57.964089672959261</v>
+      </c>
+      <c r="H23" s="2">
+        <v>13.95999980725</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.9100000103</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.47000000034000006</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.27696231825347123</v>
+      </c>
+      <c r="M23" s="2">
+        <v>7.6381231341685119E-2</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.19999998907999997</v>
+      </c>
+      <c r="O23" s="2">
+        <v>57.740000023179988</v>
+      </c>
+      <c r="P23" s="2">
+        <v>51.204556991944841</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>77.791360021597001</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1.5200000028599998</v>
+      </c>
+      <c r="S23" s="2">
+        <v>52.880700015682493</v>
+      </c>
+      <c r="T23" s="2">
+        <v>1.005000005441</v>
+      </c>
+      <c r="U23" s="2">
+        <v>1.6780000002240001</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>3.5394762431691906</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0.86915909931684687</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>5550.0042789354065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>516.23188639465275</v>
+      </c>
+      <c r="B24" s="2">
+        <v>9.9336200786057507</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.1606516416307189</v>
+      </c>
+      <c r="D24" s="2">
+        <v>25.862236947866649</v>
+      </c>
+      <c r="E24" s="2">
+        <v>8.260000021939792</v>
+      </c>
+      <c r="F24" s="2">
+        <v>6.2799999776800002</v>
+      </c>
+      <c r="G24" s="2">
+        <v>38.960035631107374</v>
+      </c>
+      <c r="H24" s="2">
+        <v>13.399999616500001</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.78000001485000003</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.3522395076445014</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.58238295150845776</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.32000000037999998</v>
+      </c>
+      <c r="M24" s="2">
+        <v>7.3743592456846474E-2</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="O24" s="2">
+        <v>42.419999969139994</v>
+      </c>
+      <c r="P24" s="2">
+        <v>41.477590060631222</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>40.330480039833965</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1.9799999986999999</v>
+      </c>
+      <c r="S24" s="2">
+        <v>38.278919988038609</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0.73600000242600006</v>
+      </c>
+      <c r="U24" s="2">
+        <v>2.1109999992159998</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0.45599998383600004</v>
+      </c>
+      <c r="W24" s="2">
+        <v>9.7720718751864624</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0.14119699928578577</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>11250.215816629392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>611.30000001479993</v>
+      </c>
+      <c r="B25" s="2">
+        <v>66.08577001304954</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.97000000059000002</v>
+      </c>
+      <c r="D25" s="2">
+        <v>10.690749974938702</v>
+      </c>
+      <c r="E25" s="2">
+        <v>46.013919972013134</v>
+      </c>
+      <c r="F25" s="2">
+        <v>20.150000007280003</v>
+      </c>
+      <c r="G25" s="2">
+        <v>111.81428497970131</v>
+      </c>
+      <c r="H25" s="2">
+        <v>21.98000015385</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1.8000000115000001</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.55000000025999995</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.82000000065</v>
+      </c>
+      <c r="L25" s="2">
+        <v>7.9999999660000001E-2</v>
+      </c>
+      <c r="M25" s="2">
+        <v>8.0000000079999994E-2</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.94000000068</v>
+      </c>
+      <c r="O25" s="2">
+        <v>38.460000019790002</v>
+      </c>
+      <c r="P25" s="2">
+        <v>75.298360002243243</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>107.23859996232572</v>
+      </c>
+      <c r="R25" s="2">
+        <v>1.4999999984399999</v>
+      </c>
+      <c r="S25" s="2">
+        <v>65.091349895147275</v>
+      </c>
+      <c r="T25" s="2">
+        <v>3.0599999938730003</v>
+      </c>
+      <c r="U25" s="2">
+        <v>2.0619999991119999</v>
+      </c>
+      <c r="V25" s="2">
+        <v>5.7530000418120002</v>
+      </c>
+      <c r="W25" s="2">
+        <v>69.862809107272369</v>
+      </c>
+      <c r="X25" s="2">
+        <v>0.179831500764911</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>15475.521574155302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>791.00000032260004</v>
+      </c>
+      <c r="B26" s="2">
+        <v>123.9932000455747</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.46000000271999997</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44.176489962441607</v>
+      </c>
+      <c r="E26" s="2">
+        <v>48.367579965128755</v>
+      </c>
+      <c r="F26" s="2">
+        <v>40.449999990400002</v>
+      </c>
+      <c r="G26" s="2">
+        <v>106.76106345921316</v>
+      </c>
+      <c r="H26" s="2">
+        <v>34.549999773500005</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1.6099999858</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.22000000022000002</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.71999999932000003</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.4800000003999999</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.17000000007999999</v>
+      </c>
+      <c r="N26" s="2">
+        <v>23.060000008319996</v>
+      </c>
+      <c r="O26" s="2">
+        <v>46.310000038189997</v>
+      </c>
+      <c r="P26" s="2">
+        <v>40.204309936195621</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>45.762140000407733</v>
+      </c>
+      <c r="R26" s="2">
+        <v>1.5600000035599999</v>
+      </c>
+      <c r="S26" s="2">
+        <v>6.9407200000000002E-2</v>
+      </c>
+      <c r="T26" s="2">
+        <v>4.5050000036410003</v>
+      </c>
+      <c r="U26" s="2">
+        <v>1.336999999344</v>
+      </c>
+      <c r="V26" s="2">
+        <v>8.1129999689580004</v>
+      </c>
+      <c r="W26" s="2">
+        <v>144.22647623148984</v>
+      </c>
+      <c r="X26" s="2">
+        <v>0.312716099546679</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>29218.471691037259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1019.9999995551</v>
+      </c>
+      <c r="B27" s="2">
+        <v>174.01199998438571</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.6900000017600001</v>
+      </c>
+      <c r="D27" s="2">
+        <v>18.684100022406749</v>
+      </c>
+      <c r="E27" s="2">
+        <v>30.414600005582066</v>
+      </c>
+      <c r="F27" s="2">
+        <v>31.510000024360004</v>
+      </c>
+      <c r="G27" s="2">
+        <v>121.66925409889609</v>
+      </c>
+      <c r="H27" s="2">
+        <v>56.090000388600004</v>
+      </c>
+      <c r="I27" s="2">
+        <v>3.1899999952</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.6599999997799999</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.82999999981000006</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.23999999967999999</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.17999999992000001</v>
+      </c>
+      <c r="N27" s="2">
+        <v>11.48868072372804</v>
+      </c>
+      <c r="O27" s="2">
+        <v>25.460000031119996</v>
+      </c>
+      <c r="P27" s="2">
+        <v>98.11513993550588</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>113.39320001241519</v>
+      </c>
+      <c r="R27" s="2">
+        <v>4.0600000025399989</v>
+      </c>
+      <c r="S27" s="2">
+        <v>96.231981795549999</v>
+      </c>
+      <c r="T27" s="2">
+        <v>12.266</v>
+      </c>
+      <c r="U27" s="2">
+        <v>2.5539999999999998</v>
+      </c>
+      <c r="V27" s="2">
+        <v>72.001999991540004</v>
+      </c>
+      <c r="W27" s="2">
+        <v>195.06407636755051</v>
+      </c>
+      <c r="X27" s="2">
+        <v>0.33144480075650629</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>25625.232259467244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58D9D4B-9B52-469B-BC66-7EB10641EA72}">
+  <dimension ref="A1:AA27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>791.09999771880007</v>
+      </c>
+      <c r="B1" s="3">
+        <v>48.723289977515996</v>
+      </c>
+      <c r="C1" s="3">
+        <v>3.6300000019599996</v>
+      </c>
+      <c r="D1" s="3">
+        <v>41.619820015706097</v>
+      </c>
+      <c r="E1" s="3">
+        <v>29.451380015280705</v>
+      </c>
+      <c r="F1" s="3">
+        <v>83.980000079999996</v>
+      </c>
+      <c r="G1" s="3">
+        <v>129.62482981764759</v>
+      </c>
+      <c r="H1" s="3">
+        <v>89.060000104600007</v>
+      </c>
+      <c r="I1" s="3">
+        <v>3.0400000083999998</v>
+      </c>
+      <c r="J1" s="3">
+        <v>0.68000000051000009</v>
+      </c>
+      <c r="K1" s="3">
+        <v>0.47000000045999996</v>
+      </c>
+      <c r="L1" s="3">
+        <v>0.49999999960000008</v>
+      </c>
+      <c r="M1" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="N1" s="3">
+        <v>1.18999999316</v>
+      </c>
+      <c r="O1" s="3">
+        <v>46.159999980279999</v>
+      </c>
+      <c r="P1" s="3">
+        <v>93.153260088831843</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>126.88210002366824</v>
+      </c>
+      <c r="R1" s="3">
+        <v>8.31</v>
+      </c>
+      <c r="S1" s="3">
+        <v>86.668809951314671</v>
+      </c>
+      <c r="T1" s="3">
+        <v>2.7730000041509997</v>
+      </c>
+      <c r="U1" s="3">
+        <v>2.377000001336</v>
+      </c>
+      <c r="V1" s="3">
+        <v>4.9409999592</v>
+      </c>
+      <c r="W1" s="3">
+        <v>58.869883163495111</v>
+      </c>
+      <c r="X1" s="3">
+        <v>0.11610130037819399</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>39299.614300354879</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>4.9999999959999997</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>5.0000000023000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1202.6999948313</v>
+      </c>
+      <c r="B2" s="3">
+        <v>86.009900057838706</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.72999999906000002</v>
+      </c>
+      <c r="D2" s="3">
+        <v>23.541159994138379</v>
+      </c>
+      <c r="E2" s="3">
+        <v>60.885449999861819</v>
+      </c>
+      <c r="F2" s="3">
+        <v>91.329999953249995</v>
+      </c>
+      <c r="G2" s="3">
+        <v>108.60492606586902</v>
+      </c>
+      <c r="H2" s="3">
+        <v>134.29999966150001</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3.5299999976800001</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.71999999993000008</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.30000000049999997</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.17000000016</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.71000001518</v>
+      </c>
+      <c r="O2" s="3">
+        <v>70.38000001108</v>
+      </c>
+      <c r="P2" s="3">
+        <v>104.40850006569713</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>103.80930002557666</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1.54999999704</v>
+      </c>
+      <c r="S2" s="3">
+        <v>97.951819960763146</v>
+      </c>
+      <c r="T2" s="3">
+        <v>6.4289999999209995</v>
+      </c>
+      <c r="U2" s="3">
+        <v>2.2230000005170001</v>
+      </c>
+      <c r="V2" s="3">
+        <v>4.220999951704</v>
+      </c>
+      <c r="W2" s="3">
+        <v>99.063558498039555</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0.145051799626081</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>37918.773197903261</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>8.0000000020000002</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>6.9999999992999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>432.1000017138</v>
+      </c>
+      <c r="B3" s="3">
+        <v>23.138120047090538</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.83686578281303314</v>
+      </c>
+      <c r="D3" s="3">
+        <v>25.53093969176857</v>
+      </c>
+      <c r="E3" s="3">
+        <v>24.769157632886593</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44.555760564570953</v>
+      </c>
+      <c r="G3" s="3">
+        <v>40.730324869233094</v>
+      </c>
+      <c r="H3" s="3">
+        <v>59.530000158700005</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.84000001208999997</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.27999999936000003</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.33999999985999996</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.25999999979999999</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>3.0999999627800001</v>
+      </c>
+      <c r="O3" s="3">
+        <v>40.959999974440002</v>
+      </c>
+      <c r="P3" s="3">
+        <v>56.926379979998785</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>45.852529961615751</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.63999999888000003</v>
+      </c>
+      <c r="S3" s="3">
+        <v>44.096689935951538</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.33999999936199998</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1.992000000899</v>
+      </c>
+      <c r="V3" s="3">
+        <v>2.9400000599170002</v>
+      </c>
+      <c r="W3" s="3">
+        <v>31.090732473959903</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0.45070669982543299</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>4313.4306364363938</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>6.0000000008000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1292.6000017308002</v>
+      </c>
+      <c r="B4" s="3">
+        <v>60.587219928308798</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6.51</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8.6638570411552305</v>
+      </c>
+      <c r="E4" s="3">
+        <v>35.710660033028084</v>
+      </c>
+      <c r="F4" s="3">
+        <v>28.749999946500001</v>
+      </c>
+      <c r="G4" s="3">
+        <v>204.33435323221136</v>
+      </c>
+      <c r="H4" s="3">
+        <v>201.07999974895003</v>
+      </c>
+      <c r="I4" s="3">
+        <v>6.2200000130999999</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.96000000052000001</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.83999999950000004</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.14373640216164815</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1.62000000986</v>
+      </c>
+      <c r="O4" s="3">
+        <v>64.830000031840001</v>
+      </c>
+      <c r="P4" s="3">
+        <v>183.83800010811134</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>187.67</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S4" s="3">
+        <v>176.17560003220441</v>
+      </c>
+      <c r="T4" s="3">
+        <v>2.0029999965159999</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1.9279999999730002</v>
+      </c>
+      <c r="V4" s="3">
+        <v>37.230173333222332</v>
+      </c>
+      <c r="W4" s="3">
+        <v>86.246018172586815</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1.3450709999999999</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>23863.555474243207</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>4.700402334936955</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>5.0000000023000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>398.19999938250004</v>
+      </c>
+      <c r="B5" s="3">
+        <v>30.416929956873318</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7.1401760094563764</v>
+      </c>
+      <c r="E5" s="3">
+        <v>21.385419994501174</v>
+      </c>
+      <c r="F5" s="3">
+        <v>47.786285531739892</v>
+      </c>
+      <c r="G5" s="3">
+        <v>46.659651271600644</v>
+      </c>
+      <c r="H5" s="3">
+        <v>83.359999993900004</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.98999998811000001</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.38000000069000006</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.26999999969999999</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.20000000040000002</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1.0700000194800001</v>
+      </c>
+      <c r="O5" s="3">
+        <v>74.620000023040006</v>
+      </c>
+      <c r="P5" s="3">
+        <v>68.723009959636414</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>51.439600007775695</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1.7099999993600001</v>
+      </c>
+      <c r="S5" s="3">
+        <v>59.881009899772408</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1.4630000021869998</v>
+      </c>
+      <c r="U5" s="3">
+        <v>2.0999999988380003</v>
+      </c>
+      <c r="V5" s="3">
+        <v>4.5160000316169997</v>
+      </c>
+      <c r="W5" s="3">
+        <v>32.764313582262645</v>
+      </c>
+      <c r="X5" s="3">
+        <v>2.8240000000000001E-2</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>14445.725278333848</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>1.9999999989999999</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>5.0000000023000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1106.099999781</v>
+      </c>
+      <c r="B6" s="3">
+        <v>75.213200004245579</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.2000000016199999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>148.8664</v>
+      </c>
+      <c r="E6" s="3">
+        <v>38.522159988218434</v>
+      </c>
+      <c r="F6" s="3">
+        <v>31.380000069000001</v>
+      </c>
+      <c r="G6" s="3">
+        <v>190.00416132365567</v>
+      </c>
+      <c r="H6" s="3">
+        <v>106.48999948300002</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3.7400000058699998</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.45000000037000004</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.75999999975999977</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.52000000050000006</v>
+      </c>
+      <c r="M6" s="3">
+        <v>8.0000000159999987E-2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>5.4899999936399997</v>
+      </c>
+      <c r="O6" s="3">
+        <v>77.069999970520001</v>
+      </c>
+      <c r="P6" s="3">
+        <v>61.389839913564927</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>184.04709993256233</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1.38000000088</v>
+      </c>
+      <c r="S6" s="3">
+        <v>58.346859845079955</v>
+      </c>
+      <c r="T6" s="3">
+        <v>6.7180000031979992</v>
+      </c>
+      <c r="U6" s="3">
+        <v>2.2539999996570002</v>
+      </c>
+      <c r="V6" s="3">
+        <v>32.428000037198998</v>
+      </c>
+      <c r="W6" s="3">
+        <v>84.19608941411407</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0.36967070044094497</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>50462.23360944751</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>7.0000000030000002</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>6.2999999977000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>510.90000486210005</v>
+      </c>
+      <c r="B7" s="3">
+        <v>28.248570061555185</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.6873960206260508</v>
+      </c>
+      <c r="D7" s="3">
+        <v>33.762730754396188</v>
+      </c>
+      <c r="E7" s="3">
+        <v>33.713582919482839</v>
+      </c>
+      <c r="F7" s="3">
+        <v>54.136601309795239</v>
+      </c>
+      <c r="G7" s="3">
+        <v>81.153584458437692</v>
+      </c>
+      <c r="H7" s="3">
+        <v>166.7900005294</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.1499999943499999</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.20999999968000002</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.89000000035999993</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.45000000010000002</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.10968339063560879</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="O7" s="3">
+        <v>96.91</v>
+      </c>
+      <c r="P7" s="3">
+        <v>83.295750075902532</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>72.021820011473054</v>
+      </c>
+      <c r="R7" s="3">
+        <v>3.5399999972799998</v>
+      </c>
+      <c r="S7" s="3">
+        <v>41.095040003406417</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.72100000289299992</v>
+      </c>
+      <c r="U7" s="3">
+        <v>1.430000001424</v>
+      </c>
+      <c r="V7" s="3">
+        <v>3.7439999593120001</v>
+      </c>
+      <c r="W7" s="3">
+        <v>35.498715048084215</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0.119087799343658</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>12503.094673601958</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>8.0000000020000002</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>5.6999999986000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>640.90000292640002</v>
+      </c>
+      <c r="B8" s="3">
+        <v>114.6075000091754</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.87000000117999998</v>
+      </c>
+      <c r="D8" s="3">
+        <v>23.762440037808453</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9.1463050258848053</v>
+      </c>
+      <c r="F8" s="3">
+        <v>50.300000094749997</v>
+      </c>
+      <c r="G8" s="3">
+        <v>82.402799168361852</v>
+      </c>
+      <c r="H8" s="3">
+        <v>80.070000025599995</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1.6400000134599999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.35999999959000001</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.26999999969999999</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.30999996684</v>
+      </c>
+      <c r="O8" s="3">
+        <v>85.950000030880005</v>
+      </c>
+      <c r="P8" s="3">
+        <v>54.796370006830827</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>79.202349999545504</v>
+      </c>
+      <c r="R8" s="3">
+        <v>6.1699999990399998</v>
+      </c>
+      <c r="S8" s="3">
+        <v>48.582819896473225</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1.7720000005609997</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1.766999999556</v>
+      </c>
+      <c r="V8" s="3">
+        <v>71.328999943428997</v>
+      </c>
+      <c r="W8" s="3">
+        <v>127.66398708751112</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0.25444959974208897</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>39487.054042669151</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>6.0000000039999994</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>5.6999999986000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1027.79999595</v>
+      </c>
+      <c r="B9" s="3">
+        <v>93.363400019284569</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.5500000005399999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>39.144929980920068</v>
+      </c>
+      <c r="E9" s="3">
+        <v>51.184799972482601</v>
+      </c>
+      <c r="F9" s="3">
+        <v>55.559999933249998</v>
+      </c>
+      <c r="G9" s="3">
+        <v>115.07348697288876</v>
+      </c>
+      <c r="H9" s="3">
+        <v>67.069999690000003</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3.4299999937800001</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.53999999976000002</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.59000000027999988</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.36999999980000003</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.11000000015999999</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.7699999769600001</v>
+      </c>
+      <c r="O9" s="3">
+        <v>43.279999998640001</v>
+      </c>
+      <c r="P9" s="3">
+        <v>73.88737013651712</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>111.18149992664131</v>
+      </c>
+      <c r="R9" s="3">
+        <v>2.0100000007999999</v>
+      </c>
+      <c r="S9" s="3">
+        <v>67.378650096253011</v>
+      </c>
+      <c r="T9" s="3">
+        <v>7.7909999992739998</v>
+      </c>
+      <c r="U9" s="3">
+        <v>2.3670000009900001</v>
+      </c>
+      <c r="V9" s="3">
+        <v>4.1999954301000002E-2</v>
+      </c>
+      <c r="W9" s="3">
+        <v>107.6635234388274</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0.112704699417569</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>35457.046190505775</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>5.2999999992000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>790.79999542740006</v>
+      </c>
+      <c r="B10" s="3">
+        <v>49.319170020568208</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.85000000269999998</v>
+      </c>
+      <c r="D10" s="3">
+        <v>32.703110058816314</v>
+      </c>
+      <c r="E10" s="3">
+        <v>39.622269986588577</v>
+      </c>
+      <c r="F10" s="3">
+        <v>89.539999967249997</v>
+      </c>
+      <c r="G10" s="3">
+        <v>131.70000006009346</v>
+      </c>
+      <c r="H10" s="3">
+        <v>58.640000361700004</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3.0900000103499998</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.60000000028000011</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.43000000051999993</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="M10" s="3">
+        <v>3.9999999839999995E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1.8999999761999999</v>
+      </c>
+      <c r="O10" s="3">
+        <v>38.750000008720001</v>
+      </c>
+      <c r="P10" s="3">
+        <v>106.28370009396662</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>133.12959996098456</v>
+      </c>
+      <c r="R10" s="3">
+        <v>6.5700000009600004</v>
+      </c>
+      <c r="S10" s="3">
+        <v>99.024279833725245</v>
+      </c>
+      <c r="T10" s="3">
+        <v>3.3830000003260001</v>
+      </c>
+      <c r="U10" s="3">
+        <v>2.1020000014839999</v>
+      </c>
+      <c r="V10" s="3">
+        <v>4.2130000578019997</v>
+      </c>
+      <c r="W10" s="3">
+        <v>56.423269511373384</v>
+      </c>
+      <c r="X10" s="3">
+        <v>7.9634399574349993E-2</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>35237.603228261825</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>4.9999999959999997</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>5.0000000023000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>432.49999576560003</v>
+      </c>
+      <c r="B11" s="3">
+        <v>67.45694994202799</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.6799999970399999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6.1786560667395074</v>
+      </c>
+      <c r="E11" s="3">
+        <v>49.460720021940283</v>
+      </c>
+      <c r="F11" s="3">
+        <v>75.269999985750005</v>
+      </c>
+      <c r="G11" s="3">
+        <v>109.05543053209493</v>
+      </c>
+      <c r="H11" s="3">
+        <v>86.140000251550006</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1.5400000095599999</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.73000000048000002</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.48999999989999993</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="M11" s="3">
+        <v>9.9999998399999991E-3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2.4700000177000003</v>
+      </c>
+      <c r="O11" s="3">
+        <v>60.450000030520002</v>
+      </c>
+      <c r="P11" s="3">
+        <v>88.495849860037538</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>99.064639988455951</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1.8700000016800002</v>
+      </c>
+      <c r="S11" s="3">
+        <v>81.034230023935521</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1.0849999972869999</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1.0999994494799999E-2</v>
+      </c>
+      <c r="W11" s="3">
+        <v>79.584645342462892</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0.28524119991600594</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>23475.28118033912</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>478.99999980000007</v>
+      </c>
+      <c r="B12" s="3">
+        <v>32.224220041489637</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.3449287162189623</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6.1653350405054548</v>
+      </c>
+      <c r="E12" s="3">
+        <v>41.626929998617115</v>
+      </c>
+      <c r="F12" s="3">
+        <v>24.530000073750003</v>
+      </c>
+      <c r="G12" s="3">
+        <v>68.380812705150149</v>
+      </c>
+      <c r="H12" s="3">
+        <v>89.780000392900007</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1.07999999162</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.27999999936000003</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.34999999958</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.28999999949999999</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3.9999999839999995E-2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>2.5400000301000003</v>
+      </c>
+      <c r="O12" s="3">
+        <v>51.53999997244</v>
+      </c>
+      <c r="P12" s="3">
+        <v>49.814319923740229</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>63.688440021002748</v>
+      </c>
+      <c r="R12" s="3">
+        <v>2.7799999998400002</v>
+      </c>
+      <c r="S12" s="3">
+        <v>42.537350043848036</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1.837999995785</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1.639999999027</v>
+      </c>
+      <c r="V12" s="3">
+        <v>9.7070000619099996</v>
+      </c>
+      <c r="W12" s="3">
+        <v>37.264156321666015</v>
+      </c>
+      <c r="X12" s="3">
+        <v>4.0709499392243997E-2</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>11173.569501568621</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>1.9999999989999999</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>4.3000000006999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2024.9999956871998</v>
+      </c>
+      <c r="B13" s="3">
+        <v>62.22139995686203</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.76000000315999994</v>
+      </c>
+      <c r="D13" s="3">
+        <v>96.509419965616161</v>
+      </c>
+      <c r="E13" s="3">
+        <v>17.592880032576488</v>
+      </c>
+      <c r="F13" s="3">
+        <v>109.929999927</v>
+      </c>
+      <c r="G13" s="3">
+        <v>179.64804814928078</v>
+      </c>
+      <c r="H13" s="3">
+        <v>307.31999951380004</v>
+      </c>
+      <c r="I13" s="3">
+        <v>8.1599999992699992</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.58000000057000012</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.33999999985999996</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.80999999980000015</v>
+      </c>
+      <c r="M13" s="3">
+        <v>5.0000000160000002E-2</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1.4699999595</v>
+      </c>
+      <c r="O13" s="3">
+        <v>47.039999980239998</v>
+      </c>
+      <c r="P13" s="3">
+        <v>94.08913015753788</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>166.6102000359426</v>
+      </c>
+      <c r="R13" s="3">
+        <v>2.6599999961600007</v>
+      </c>
+      <c r="S13" s="3">
+        <v>89.781379952390779</v>
+      </c>
+      <c r="T13" s="3">
+        <v>7.5369999969199997</v>
+      </c>
+      <c r="U13" s="3">
+        <v>2.0820000007920001</v>
+      </c>
+      <c r="V13" s="3">
+        <v>50.224000038054996</v>
+      </c>
+      <c r="W13" s="3">
+        <v>73.268306026126936</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0.13379210052698798</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>52333.432973132629</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>706.89999384060002</v>
+      </c>
+      <c r="B14" s="3">
+        <v>49.121099955153056</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.60000000255999997</v>
+      </c>
+      <c r="D14" s="3">
+        <v>27.409820008506898</v>
+      </c>
+      <c r="E14" s="3">
+        <v>77.127340000000004</v>
+      </c>
+      <c r="F14" s="3">
+        <v>50.009999946000001</v>
+      </c>
+      <c r="G14" s="3">
+        <v>111.58734547862846</v>
+      </c>
+      <c r="H14" s="3">
+        <v>63.890000588349999</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1.9199999945499999</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.60000000028000011</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.94999999973999993</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.48999999970000002</v>
+      </c>
+      <c r="M14" s="3">
+        <v>6.9999999840000007E-2</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1.8900000339</v>
+      </c>
+      <c r="O14" s="3">
+        <v>46.099999984839997</v>
+      </c>
+      <c r="P14" s="3">
+        <v>61.187030024602464</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>104.61229998050659</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1.20000000312</v>
+      </c>
+      <c r="S14" s="3">
+        <v>54.242759896698118</v>
+      </c>
+      <c r="T14" s="3">
+        <v>4.6410000049009996</v>
+      </c>
+      <c r="U14" s="3">
+        <v>2.1339999987259999</v>
+      </c>
+      <c r="V14" s="3">
+        <v>3.0130000033950002</v>
+      </c>
+      <c r="W14" s="3">
+        <v>54.813083366503577</v>
+      </c>
+      <c r="X14" s="3">
+        <v>4.8183400227676004E-2</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>31776.977741378665</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>7.0000000030000002</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>6.0000000008000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>370.8000016812</v>
+      </c>
+      <c r="B15" s="3">
+        <v>13.225829962849069</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.0002329040228215</v>
+      </c>
+      <c r="D15" s="3">
+        <v>31.154127165179109</v>
+      </c>
+      <c r="E15" s="3">
+        <v>24.730992555217497</v>
+      </c>
+      <c r="F15" s="3">
+        <v>52.806493636971652</v>
+      </c>
+      <c r="G15" s="3">
+        <v>89.700669550966239</v>
+      </c>
+      <c r="H15" s="3">
+        <v>144.6900004327</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.4300000052699999</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.25000000049000004</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.25000000025999997</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.41000000050000002</v>
+      </c>
+      <c r="M15" s="3">
+        <v>5.1696551108281918E-2</v>
+      </c>
+      <c r="N15" s="3">
+        <v>4.999999342E-2</v>
+      </c>
+      <c r="O15" s="3">
+        <v>35.759999968599999</v>
+      </c>
+      <c r="P15" s="3">
+        <v>43.492019918405283</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>75.457970024570855</v>
+      </c>
+      <c r="R15" s="3">
+        <v>1.4999999968000002</v>
+      </c>
+      <c r="S15" s="3">
+        <v>35.55694985421021</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="U15" s="3">
+        <v>1.337999998885</v>
+      </c>
+      <c r="V15" s="3">
+        <v>1.598999957937</v>
+      </c>
+      <c r="W15" s="3">
+        <v>13.568666607499985</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0.17482920026675597</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>8713.067948458418</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>4.9999999959999997</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>5.6999999986000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>275.10000000000002</v>
+      </c>
+      <c r="B16" s="3">
+        <v>30.604009983745975</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.97662527575457303</v>
+      </c>
+      <c r="D16" s="3">
+        <v>26.678259339130488</v>
+      </c>
+      <c r="E16" s="3">
+        <v>24.748959903713224</v>
+      </c>
+      <c r="F16" s="3">
+        <v>45.214668267360956</v>
+      </c>
+      <c r="G16" s="3">
+        <v>48.942661601394136</v>
+      </c>
+      <c r="H16" s="3">
+        <v>90.640000276600006</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.72000000741000003</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.22999999939000004</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.23999999947999998</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.26999999969999999</v>
+      </c>
+      <c r="M16" s="3">
+        <v>7.5933709635406077E-2</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1.2000000187200002</v>
+      </c>
+      <c r="O16" s="3">
+        <v>72.559999979080004</v>
+      </c>
+      <c r="P16" s="3">
+        <v>39.626660161031097</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>46.613629965182398</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1.49000000296</v>
+      </c>
+      <c r="S16" s="3">
+        <v>31.592080127149977</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.54399999496700002</v>
+      </c>
+      <c r="U16" s="3">
+        <v>1.094999999496</v>
+      </c>
+      <c r="V16" s="3">
+        <v>22.995885498095095</v>
+      </c>
+      <c r="W16" s="3">
+        <v>33.868641980963389</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0.129637399959663</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>8864.9923131993164</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>4.9999999959999997</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>5.0000000023000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>13780.2</v>
+      </c>
+      <c r="B17" s="3">
+        <v>154.7039</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.94000000224000002</v>
+      </c>
+      <c r="D17" s="3">
+        <v>83.37011671144235</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.50064489999999995</v>
+      </c>
+      <c r="F17" s="3">
+        <v>209.19</v>
+      </c>
+      <c r="G17" s="3">
+        <v>151.61864821723981</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1226.92</v>
+      </c>
+      <c r="I17" s="3">
+        <v>30.36</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.52000000005000002</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.40000000029999994</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.11000000015999999</v>
+      </c>
+      <c r="N17" s="3">
+        <v>83.28</v>
+      </c>
+      <c r="O17" s="3">
+        <v>30.07</v>
+      </c>
+      <c r="P17" s="3">
+        <v>361.95089999999999</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>139.4715999198302</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1.1199999980800002</v>
+      </c>
+      <c r="S17" s="3">
+        <v>357.9837</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1.5049999956919999</v>
+      </c>
+      <c r="U17" s="3">
+        <v>4.1630000000000003</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1.0459999675480001</v>
+      </c>
+      <c r="W17" s="3">
+        <v>186.91883825599643</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0.76168390040220391</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>90015.527795914459</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>6.0000000039999994</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>4.3000000006999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1227.0999966288</v>
+      </c>
+      <c r="B18" s="3">
+        <v>67.861879981380369</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.4833011731256129</v>
+      </c>
+      <c r="D18" s="3">
+        <v>14.805260035582331</v>
+      </c>
+      <c r="E18" s="3">
+        <v>59.682520003205639</v>
+      </c>
+      <c r="F18" s="3">
+        <v>80.84736433944893</v>
+      </c>
+      <c r="G18" s="3">
+        <v>132.25581895144987</v>
+      </c>
+      <c r="H18" s="3">
+        <v>243.32999965510004</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5.9300000017899999</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1.21000000047</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.63000000021999991</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.77000000020000003</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.1235011106337211</v>
+      </c>
+      <c r="N18" s="3">
+        <v>8.1299999974200006</v>
+      </c>
+      <c r="O18" s="3">
+        <v>62.190000031960004</v>
+      </c>
+      <c r="P18" s="3">
+        <v>157.330200006833</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>134.10719999815007</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1.1000000026400001</v>
+      </c>
+      <c r="S18" s="3">
+        <v>133.81429991296872</v>
+      </c>
+      <c r="T18" s="3">
+        <v>3.369999997811</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1.600999998966</v>
+      </c>
+      <c r="V18" s="3">
+        <v>32.517433908372119</v>
+      </c>
+      <c r="W18" s="3">
+        <v>70.476060637616939</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0.34448139973680797</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>15723.419793153367</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>4.5893123465723829</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>4.8709109141296967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1439.3000013021001</v>
+      </c>
+      <c r="B19" s="3">
+        <v>102.11350001249905</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1.30999999964</v>
+      </c>
+      <c r="D19" s="3">
+        <v>68.223769962281921</v>
+      </c>
+      <c r="E19" s="3">
+        <v>40.07439001592693</v>
+      </c>
+      <c r="F19" s="3">
+        <v>136.48999997474999</v>
+      </c>
+      <c r="G19" s="3">
+        <v>177.70484395628085</v>
+      </c>
+      <c r="H19" s="3">
+        <v>152.20000005070003</v>
+      </c>
+      <c r="I19" s="3">
+        <v>5.6599999912599994</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.55999999947000001</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.44000000023999997</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.46999999990000008</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="N19" s="3">
+        <v>4.7099999981999998</v>
+      </c>
+      <c r="O19" s="3">
+        <v>84.590000000559996</v>
+      </c>
+      <c r="P19" s="3">
+        <v>117.63460002124418</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>173.70469994607561</v>
+      </c>
+      <c r="R19" s="3">
+        <v>2.1899999985600003</v>
+      </c>
+      <c r="S19" s="3">
+        <v>111.81369986688435</v>
+      </c>
+      <c r="T19" s="3">
+        <v>4.6269999943949998</v>
+      </c>
+      <c r="U19" s="3">
+        <v>1.8560000013469999</v>
+      </c>
+      <c r="V19" s="3">
+        <v>125.744</v>
+      </c>
+      <c r="W19" s="3">
+        <v>115.04423131489136</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0.138259299575754</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>41458.932716311239</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>2.9999999979999998</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>4.3000000006999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>302.79999999270001</v>
+      </c>
+      <c r="B20" s="3">
+        <v>36.201319973135035</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.38000000014000002</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.67387319999999995</v>
+      </c>
+      <c r="E20" s="3">
+        <v>35.09993002436876</v>
+      </c>
+      <c r="F20" s="3">
+        <v>11.770000032750001</v>
+      </c>
+      <c r="G20" s="3">
+        <v>42.036129165570088</v>
+      </c>
+      <c r="H20" s="3">
+        <v>42.37</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.70000000663000006</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.23999999994000001</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.33999999985999996</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="M20" s="3">
+        <v>9.9999998399999991E-3</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.79999999544</v>
+      </c>
+      <c r="O20" s="3">
+        <v>40.779999988119997</v>
+      </c>
+      <c r="P20" s="3">
+        <v>44.224770033969634</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>41.365959993200846</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1.1299999996800001</v>
+      </c>
+      <c r="S20" s="3">
+        <v>38.112250154256238</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1.6969999967729998</v>
+      </c>
+      <c r="U20" s="3">
+        <v>1.4069999999839999</v>
+      </c>
+      <c r="V20" s="3">
+        <v>11.111000051378999</v>
+      </c>
+      <c r="W20" s="3">
+        <v>43.625189393934214</v>
+      </c>
+      <c r="X20" s="3">
+        <v>7.0002900115699998E-2</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>8958.0124267331448</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>7.0000000030000002</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>6.0000000008000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>846.6999947301</v>
+      </c>
+      <c r="B21" s="3">
+        <v>42.396590018637546</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.79000000088</v>
+      </c>
+      <c r="D21" s="3">
+        <v>26.927839968075318</v>
+      </c>
+      <c r="E21" s="3">
+        <v>33.927099989694895</v>
+      </c>
+      <c r="F21" s="3">
+        <v>85.2400000815</v>
+      </c>
+      <c r="G21" s="3">
+        <v>155.24812967342945</v>
+      </c>
+      <c r="H21" s="3">
+        <v>107.92000008850002</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2.4699999861699999</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.73000000048000002</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.75999999975999977</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.58999999980000006</v>
+      </c>
+      <c r="M21" s="3">
+        <v>3.9999999839999995E-2</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1.34999998582</v>
+      </c>
+      <c r="O21" s="3">
+        <v>54.739999996599998</v>
+      </c>
+      <c r="P21" s="3">
+        <v>98.194929897206123</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>149.1938000181932</v>
+      </c>
+      <c r="R21" s="3">
+        <v>2.3100000022400002</v>
+      </c>
+      <c r="S21" s="3">
+        <v>89.501719850625392</v>
+      </c>
+      <c r="T21" s="3">
+        <v>5.4350000015839992</v>
+      </c>
+      <c r="U21" s="3">
+        <v>2.352000000471</v>
+      </c>
+      <c r="V21" s="3">
+        <v>13.638999971517</v>
+      </c>
+      <c r="W21" s="3">
+        <v>51.638264162918794</v>
+      </c>
+      <c r="X21" s="3">
+        <v>4.4405200078885002E-2</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>19064.988697981455</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>6.0000000039999994</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>6.0000000008000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>340.10000578470004</v>
+      </c>
+      <c r="B22" s="3">
+        <v>21.991540002359933</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.15999999772000001</v>
+      </c>
+      <c r="D22" s="3">
+        <v>23.603368331136391</v>
+      </c>
+      <c r="E22" s="3">
+        <v>26.482931698799071</v>
+      </c>
+      <c r="F22" s="3">
+        <v>39.433835635299104</v>
+      </c>
+      <c r="G22" s="3">
+        <v>24.053603773584907</v>
+      </c>
+      <c r="H22" s="3">
+        <v>75.500000202850003</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.41999999973999991</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.14999999980000001</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3.9999999839999995E-2</v>
+      </c>
+      <c r="N22" s="3">
+        <v>4.3600000194599993</v>
+      </c>
+      <c r="O22" s="3">
+        <v>58.619999969079998</v>
+      </c>
+      <c r="P22" s="3">
+        <v>29.62059</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>22.557449999999999</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0.95000000192000011</v>
+      </c>
+      <c r="S22" s="3">
+        <v>24.18873</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0.32699999684699999</v>
+      </c>
+      <c r="U22" s="3">
+        <v>1.284000001526</v>
+      </c>
+      <c r="V22" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="W22" s="3">
+        <v>26.731838490500152</v>
+      </c>
+      <c r="X22" s="3">
+        <v>1.147878000471505</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>5681.0916133658529</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>9.0000000010000001</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>6.0000000008000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>314.40000306120004</v>
+      </c>
+      <c r="B23" s="3">
+        <v>7.3211279999999999</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1.0322328614630267</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3.0944629736935583</v>
+      </c>
+      <c r="E23" s="3">
+        <v>19.560249969941395</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5.94</v>
+      </c>
+      <c r="G23" s="3">
+        <v>49.774429745839875</v>
+      </c>
+      <c r="H23" s="3">
+        <v>74.529999452500007</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1.0999999923999999</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.33999999988000001</v>
+      </c>
+      <c r="K23" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="M23" s="3">
+        <v>5.6299512367851835E-2</v>
+      </c>
+      <c r="N23" s="3">
+        <v>2.57000002352</v>
+      </c>
+      <c r="O23" s="3">
+        <v>64.629999980199997</v>
+      </c>
+      <c r="P23" s="3">
+        <v>75.431958315225415</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>51.487539941330553</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1.6899999961600003</v>
+      </c>
+      <c r="S23" s="3">
+        <v>47.827350085746474</v>
+      </c>
+      <c r="T23" s="3">
+        <v>1.5369999979839999</v>
+      </c>
+      <c r="U23" s="3">
+        <v>1.607000000462</v>
+      </c>
+      <c r="V23" s="3">
+        <v>2.4040000012460001</v>
+      </c>
+      <c r="W23" s="3">
+        <v>8.0780010988777224</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0.32088090040642497</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>12798.527285738499</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>2.9999999979999998</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>4.7000000001000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>454.09999868520003</v>
+      </c>
+      <c r="B24" s="3">
+        <v>29.68214003000061</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1.3194596474025819</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5.331207025141885</v>
+      </c>
+      <c r="E24" s="3">
+        <v>18.311790000217396</v>
+      </c>
+      <c r="F24" s="3">
+        <v>8.9200000777500001</v>
+      </c>
+      <c r="G24" s="3">
+        <v>73.114965174770489</v>
+      </c>
+      <c r="H24" s="3">
+        <v>61.65999992575</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1.11999999318</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.38999999985000006</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.33999999985999996</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.42000000040000002</v>
+      </c>
+      <c r="M24" s="3">
+        <v>8.4298959888105124E-2</v>
+      </c>
+      <c r="N24" s="3">
+        <v>4.999999342E-2</v>
+      </c>
+      <c r="O24" s="3">
+        <v>60.039999994840002</v>
+      </c>
+      <c r="P24" s="3">
+        <v>54.441710090971625</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>69.901540079426951</v>
+      </c>
+      <c r="R24" s="3">
+        <v>2.22000000336</v>
+      </c>
+      <c r="S24" s="3">
+        <v>51.85675005779202</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1.3859999950879998</v>
+      </c>
+      <c r="U24" s="3">
+        <v>2.415000000074</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1.5810000080459998</v>
+      </c>
+      <c r="W24" s="3">
+        <v>38.982315833561046</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0.49828889999140291</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>19405.93323741034</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>2.9999999979999998</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>6.2999999977000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>818.79999771150005</v>
+      </c>
+      <c r="B25" s="3">
+        <v>92.638090047072438</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.60000000255999997</v>
+      </c>
+      <c r="D25" s="3">
+        <v>41.601060027353434</v>
+      </c>
+      <c r="E25" s="3">
+        <v>29.718610020693212</v>
+      </c>
+      <c r="F25" s="3">
+        <v>89.749999899749994</v>
+      </c>
+      <c r="G25" s="3">
+        <v>177.15025259654752</v>
+      </c>
+      <c r="H25" s="3">
+        <v>69.199999457050012</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2.5599999896799996</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.58999999973000006</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.82000000019999986</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.77000000020000003</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1.1300000063200002</v>
+      </c>
+      <c r="O25" s="3">
+        <v>52.97999999668</v>
+      </c>
+      <c r="P25" s="3">
+        <v>116.85039985640688</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>163.05019992465253</v>
+      </c>
+      <c r="R25" s="3">
+        <v>1.49000000296</v>
+      </c>
+      <c r="S25" s="3">
+        <v>109.21630001004203</v>
+      </c>
+      <c r="T25" s="3">
+        <v>2.3720000055229997</v>
+      </c>
+      <c r="U25" s="3">
+        <v>2.4380000015140002</v>
+      </c>
+      <c r="V25" s="3">
+        <v>7.5180000153690001</v>
+      </c>
+      <c r="W25" s="3">
+        <v>107.01560544091178</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0.75686070004308104</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>28024.748469251663</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>4.9999999959999997</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>5.0000000023000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1067.9000006199001</v>
+      </c>
+      <c r="B26" s="3">
+        <v>123.05749993895735</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.97999999919999992</v>
+      </c>
+      <c r="D26" s="3">
+        <v>43.079530038398566</v>
+      </c>
+      <c r="E26" s="3">
+        <v>37.585860009952128</v>
+      </c>
+      <c r="F26" s="3">
+        <v>52.019999967749996</v>
+      </c>
+      <c r="G26" s="3">
+        <v>122.24352009577129</v>
+      </c>
+      <c r="H26" s="3">
+        <v>64.410000270099999</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2.4599999857799997</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.25999999965000004</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.82999999991999984</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.46999999990000008</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.21999999983999999</v>
+      </c>
+      <c r="N26" s="3">
+        <v>5.6700000374200004</v>
+      </c>
+      <c r="O26" s="3">
+        <v>74.880000003280003</v>
+      </c>
+      <c r="P26" s="3">
+        <v>49.134960001798618</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>116.0844999271861</v>
+      </c>
+      <c r="R26" s="3">
+        <v>1.5800000018400002</v>
+      </c>
+      <c r="S26" s="3">
+        <v>45.718029907167747</v>
+      </c>
+      <c r="T26" s="3">
+        <v>4.8559999997099998</v>
+      </c>
+      <c r="U26" s="3">
+        <v>1.681999999836</v>
+      </c>
+      <c r="V26" s="3">
+        <v>9.2550000208790006</v>
+      </c>
+      <c r="W26" s="3">
+        <v>143.64451772589743</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0.35350459964965597</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>43948.619775800711</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>6.0000000039999994</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>5.6999999986000009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1379.6000044869002</v>
+      </c>
+      <c r="B27" s="3">
+        <v>139.51310006329615</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1.63000000084</v>
+      </c>
+      <c r="D27" s="3">
+        <v>14.848970014132098</v>
+      </c>
+      <c r="E27" s="3">
+        <v>30.990499981724547</v>
+      </c>
+      <c r="F27" s="3">
+        <v>83.150000046749994</v>
+      </c>
+      <c r="G27" s="3">
+        <v>170.99171364370329</v>
+      </c>
+      <c r="H27" s="3">
+        <v>149.71000013950001</v>
+      </c>
+      <c r="I27" s="3">
+        <v>5.0199999961300001</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.75000000019000013</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.47000000045999996</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.32000000029999998</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="N27" s="3">
+        <v>6.1500000153999999</v>
+      </c>
+      <c r="O27" s="3">
+        <v>43.800000025960003</v>
+      </c>
+      <c r="P27" s="3">
+        <v>130.18159993715204</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>159.05490005856839</v>
+      </c>
+      <c r="R27" s="3">
+        <v>4.5800000007200001</v>
+      </c>
+      <c r="S27" s="3">
+        <v>128.42965693095692</v>
+      </c>
+      <c r="T27" s="3">
+        <v>12.843</v>
+      </c>
+      <c r="U27" s="3">
+        <v>2.8370000011469996</v>
+      </c>
+      <c r="V27" s="3">
+        <v>83.434000006584995</v>
+      </c>
+      <c r="W27" s="3">
+        <v>154.68233043517375</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0.48072769971596691</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>40480.961317718356</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>7.9999999978000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7318DAE0-5197-4641-B6A3-1A7F1C1973AC}">
+  <dimension ref="A1:AA27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>409.3000025536</v>
+      </c>
+      <c r="B1" s="4">
+        <v>9.0886079625172389</v>
+      </c>
+      <c r="C1" s="4">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4">
+        <v>85.785794940680034</v>
+      </c>
+      <c r="H1" s="4">
+        <v>84.929999990749991</v>
+      </c>
+      <c r="I1" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="J1" s="4">
+        <v>0.28000000011000004</v>
+      </c>
+      <c r="K1" s="4">
+        <v>0.56999999984000005</v>
+      </c>
+      <c r="L1" s="4">
+        <v>0.3799999999</v>
+      </c>
+      <c r="M1" s="4">
+        <v>0</v>
+      </c>
+      <c r="N1" s="4">
+        <v>1.07000000768</v>
+      </c>
+      <c r="O1" s="4">
+        <v>100.0000000064</v>
+      </c>
+      <c r="P1" s="4">
+        <v>77.637458251975346</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>90.223279931812471</v>
+      </c>
+      <c r="R1" s="4">
+        <v>4.6800000021700008</v>
+      </c>
+      <c r="S1" s="4">
+        <v>54.204270140220501</v>
+      </c>
+      <c r="T1" s="4">
+        <v>0.39999999881600001</v>
+      </c>
+      <c r="U1" s="4">
+        <v>1.282999997903</v>
+      </c>
+      <c r="V1" s="4">
+        <v>5.2500000485899996</v>
+      </c>
+      <c r="W1" s="4">
+        <v>7.2725134190887353</v>
+      </c>
+      <c r="X1" s="4">
+        <v>0.11194029995747599</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>16534.220526537578</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>8.0000000020000002</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1894.9999962728</v>
+      </c>
+      <c r="B2" s="4">
+        <v>126.51409996134201</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.66000000012000004</v>
+      </c>
+      <c r="D2" s="4">
+        <v>12.316020021212999</v>
+      </c>
+      <c r="E2" s="4">
+        <v>58.633030001103755</v>
+      </c>
+      <c r="F2" s="4">
+        <v>116.79999999073</v>
+      </c>
+      <c r="G2" s="4">
+        <v>212.66538098757314</v>
+      </c>
+      <c r="H2" s="4">
+        <v>139.17000009769998</v>
+      </c>
+      <c r="I2" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.82999999966000004</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.42000000035999996</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.30999999950000001</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1.48000000038</v>
+      </c>
+      <c r="O2" s="4">
+        <v>50.619999992959997</v>
+      </c>
+      <c r="P2" s="4">
+        <v>170.23830004440725</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>191.91530006699907</v>
+      </c>
+      <c r="R2" s="4">
+        <v>4.9400000003400004</v>
+      </c>
+      <c r="S2" s="4">
+        <v>122.98966989078743</v>
+      </c>
+      <c r="T2" s="4">
+        <v>8.9809999980680004</v>
+      </c>
+      <c r="U2" s="4">
+        <v>2.744000000507</v>
+      </c>
+      <c r="V2" s="4">
+        <v>95.784000066516995</v>
+      </c>
+      <c r="W2" s="4">
+        <v>118.74503574133107</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0.319439400289522</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>38960.757925780112</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1531.7000062072</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20.457170006890983</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3.5999999998500001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6.0232670480532002</v>
+      </c>
+      <c r="E3" s="4">
+        <v>18.232020035734347</v>
+      </c>
+      <c r="F3" s="4">
+        <v>74.020000067360002</v>
+      </c>
+      <c r="G3" s="4">
+        <v>326.13060577402644</v>
+      </c>
+      <c r="H3" s="4">
+        <v>247.47000044435001</v>
+      </c>
+      <c r="I3" s="4">
+        <v>7.41</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.66000000045</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.42000000035999996</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1.4600000001</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>3.1500000075799997</v>
+      </c>
+      <c r="O3" s="4">
+        <v>89.639999991739984</v>
+      </c>
+      <c r="P3" s="4">
+        <v>259.71970010093321</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>315.49390002405789</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0.73999999845000008</v>
+      </c>
+      <c r="S3" s="4">
+        <v>249.99009990004697</v>
+      </c>
+      <c r="T3" s="4">
+        <v>2.1649999983770001</v>
+      </c>
+      <c r="U3" s="4">
+        <v>2.0710000011980001</v>
+      </c>
+      <c r="V3" s="4">
+        <v>54.127571747043937</v>
+      </c>
+      <c r="W3" s="4">
+        <v>11.416485722565525</v>
+      </c>
+      <c r="X3" s="4">
+        <v>1.0478580003073787</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>29371.999950491805</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>8.0000000020000002</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>844.59999994319992</v>
+      </c>
+      <c r="B4" s="4">
+        <v>18.477950013604321</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.60000000027</v>
+      </c>
+      <c r="D4" s="4">
+        <v>47.967389926428602</v>
+      </c>
+      <c r="E4" s="4">
+        <v>33.809010042797006</v>
+      </c>
+      <c r="F4" s="4">
+        <v>78.749999978209999</v>
+      </c>
+      <c r="G4" s="4">
+        <v>135.33793423864466</v>
+      </c>
+      <c r="H4" s="4">
+        <v>64.460000313349994</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3.36</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.71999999974999995</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.39999999963999999</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.55000000039999997</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2.0000000099999998E-2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1.65999999562</v>
+      </c>
+      <c r="O4" s="4">
+        <v>62.41999998272</v>
+      </c>
+      <c r="P4" s="4">
+        <v>101.93089992020887</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>133.27349995228272</v>
+      </c>
+      <c r="R4" s="4">
+        <v>7.5200000021499998</v>
+      </c>
+      <c r="S4" s="4">
+        <v>94.107529953298794</v>
+      </c>
+      <c r="T4" s="4">
+        <v>2.3190000001270001</v>
+      </c>
+      <c r="U4" s="4">
+        <v>2.2900000000279999</v>
+      </c>
+      <c r="V4" s="4">
+        <v>4.9169999355569987</v>
+      </c>
+      <c r="W4" s="4">
+        <v>19.72286956168929</v>
+      </c>
+      <c r="X4" s="4">
+        <v>8.6708599897481906E-2</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>49581.464833309299</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>4.9999999959999997</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1248.5000016008</v>
+      </c>
+      <c r="B5" s="4">
+        <v>50.510600044169252</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.13999999965000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>54.154699910505002</v>
+      </c>
+      <c r="E5" s="4">
+        <v>59.097409956187249</v>
+      </c>
+      <c r="F5" s="4">
+        <v>73.369999988450004</v>
+      </c>
+      <c r="G5" s="4">
+        <v>116.8127553276168</v>
+      </c>
+      <c r="H5" s="4">
+        <v>95.590000330549998</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3.26</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.76000000036000004</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.30999999950000001</v>
+      </c>
+      <c r="M5" s="4">
+        <v>9.9999999899999997E-2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.76000000347999985</v>
+      </c>
+      <c r="O5" s="4">
+        <v>64.81000000585999</v>
+      </c>
+      <c r="P5" s="4">
+        <v>113.17010014031001</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>114.66999988394849</v>
+      </c>
+      <c r="R5" s="4">
+        <v>2.0800000010000002</v>
+      </c>
+      <c r="S5" s="4">
+        <v>105.20999993867828</v>
+      </c>
+      <c r="T5" s="4">
+        <v>5.4009999977750001</v>
+      </c>
+      <c r="U5" s="4">
+        <v>2.1929999997469998</v>
+      </c>
+      <c r="V5" s="4">
+        <v>4.2440000310199997</v>
+      </c>
+      <c r="W5" s="4">
+        <v>44.738805014707289</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0.14353200020775769</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>46512.889902342053</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>8.0000000020000002</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>531.60000299440003</v>
+      </c>
+      <c r="B6" s="4">
+        <v>14.945430048376549</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>71.335344617282374</v>
+      </c>
+      <c r="H6" s="4">
+        <v>70.160000491250003</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.40999999982000002</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.44000000034000003</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.44000000039999998</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>-0.18</v>
+      </c>
+      <c r="O6" s="4">
+        <v>46.749999984199995</v>
+      </c>
+      <c r="P6" s="4">
+        <v>71.981089897221054</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>5.6674478905804966</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1.4100000029699999</v>
+      </c>
+      <c r="S6" s="4">
+        <v>60.721150072477215</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0.300999997691</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1.7399999997109998</v>
+      </c>
+      <c r="V6" s="4">
+        <v>6.109000043118999</v>
+      </c>
+      <c r="W6" s="4">
+        <v>15.413603067680114</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0.52568219965840812</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>7286.6418699187243</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>446.19999813919998</v>
+      </c>
+      <c r="B7" s="4">
+        <v>19.637439992298845</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>12.808789953465</v>
+      </c>
+      <c r="E7" s="4">
+        <v>25.444980025976648</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>67.742724397984901</v>
+      </c>
+      <c r="H7" s="4">
+        <v>86.500000461950009</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.46000000032999999</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.23000000018</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.21000000050000001</v>
+      </c>
+      <c r="M7" s="4">
+        <v>9.9999998999999989E-3</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.34000000396000002</v>
+      </c>
+      <c r="O7" s="4">
+        <v>82.020000005779991</v>
+      </c>
+      <c r="P7" s="4">
+        <v>73.641589933154805</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>17.755430097864803</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1.88000000091</v>
+      </c>
+      <c r="S7" s="4">
+        <v>63.146269982358142</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1.8580000027250001</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1.8660000000320001</v>
+      </c>
+      <c r="V7" s="4">
+        <v>6.4970000108339994</v>
+      </c>
+      <c r="W7" s="4">
+        <v>17.754777236886451</v>
+      </c>
+      <c r="X7" s="4">
+        <v>1.4223400000000001E-2</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>20580.177669537687</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>1.9999999989999999</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1241.9999978136</v>
+      </c>
+      <c r="B8" s="4">
+        <v>63.666600068724307</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.47000000075</v>
+      </c>
+      <c r="D8" s="4">
+        <v>181.3134</v>
+      </c>
+      <c r="E8" s="4">
+        <v>39.22585003154515</v>
+      </c>
+      <c r="F8" s="4">
+        <v>46.880000052569997</v>
+      </c>
+      <c r="G8" s="4">
+        <v>205.44638681406548</v>
+      </c>
+      <c r="H8" s="4">
+        <v>103.03999983575</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.47000000022999999</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.68999999972000003</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.58000000009999997</v>
+      </c>
+      <c r="M8" s="4">
+        <v>6.9999999899999998E-2</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2.3099999925999994</v>
+      </c>
+      <c r="O8" s="4">
+        <v>80.26000000418</v>
+      </c>
+      <c r="P8" s="4">
+        <v>79.8849200436822</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>9.9727251139264066</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1.5799999975300001</v>
+      </c>
+      <c r="S8" s="4">
+        <v>54.00638997619442</v>
+      </c>
+      <c r="T8" s="4">
+        <v>6.923</v>
+      </c>
+      <c r="U8" s="4">
+        <v>2.6269999999040001</v>
+      </c>
+      <c r="V8" s="4">
+        <v>49.700999975280993</v>
+      </c>
+      <c r="W8" s="4">
+        <v>53.812992946027663</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0.33369210015190393</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>59889.005058596005</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>7.0000000030000002</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>870.90000029919997</v>
+      </c>
+      <c r="B9" s="4">
+        <v>50.964279962142498</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.27000000021000004</v>
+      </c>
+      <c r="D9" s="4">
+        <v>21.429649953900601</v>
+      </c>
+      <c r="E9" s="4">
+        <v>12.247059977522978</v>
+      </c>
+      <c r="F9" s="4">
+        <v>36.519999937340003</v>
+      </c>
+      <c r="G9" s="4">
+        <v>101.51512752320005</v>
+      </c>
+      <c r="H9" s="4">
+        <v>105.28000043074999</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3.36</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.43999999952000002</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.46000000031999994</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.34000000029999999</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.36000000165999996</v>
+      </c>
+      <c r="O9" s="4">
+        <v>91.390000019539997</v>
+      </c>
+      <c r="P9" s="4">
+        <v>70.459720012532557</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>99.910800110837556</v>
+      </c>
+      <c r="R9" s="4">
+        <v>2.4099999969299999</v>
+      </c>
+      <c r="S9" s="4">
+        <v>62.415310007210152</v>
+      </c>
+      <c r="T9" s="4">
+        <v>1.6980000003040001</v>
+      </c>
+      <c r="U9" s="4">
+        <v>1.5390000003169999</v>
+      </c>
+      <c r="V9" s="4">
+        <v>74.991999958223005</v>
+      </c>
+      <c r="W9" s="4">
+        <v>54.366273395605738</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0.224614799887703</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>48842.962344208412</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>6.0000000039999994</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>1100.6999952383999</v>
+      </c>
+      <c r="B10" s="4">
+        <v>65.112160010216087</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.1999999995</v>
+      </c>
+      <c r="D10" s="4">
+        <v>56.257560031767007</v>
+      </c>
+      <c r="E10" s="4">
+        <v>63.089849992863869</v>
+      </c>
+      <c r="F10" s="4">
+        <v>62.269999930799997</v>
+      </c>
+      <c r="G10" s="4">
+        <v>133.14412958529493</v>
+      </c>
+      <c r="H10" s="4">
+        <v>57.7600000865</v>
+      </c>
+      <c r="I10" s="4">
+        <v>4.21</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.58000000013999997</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.44999999995999995</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.44000000039999998</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.88000000562000014</v>
+      </c>
+      <c r="O10" s="4">
+        <v>48.570000001579999</v>
+      </c>
+      <c r="P10" s="4">
+        <v>92.129490006830807</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>131.53510006884559</v>
+      </c>
+      <c r="R10" s="4">
+        <v>2.6400000025499999</v>
+      </c>
+      <c r="S10" s="4">
+        <v>83.85566987237533</v>
+      </c>
+      <c r="T10" s="4">
+        <v>6.2380000018610007</v>
+      </c>
+      <c r="U10" s="4">
+        <v>2.400000001799</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0.25000005393399999</v>
+      </c>
+      <c r="W10" s="4">
+        <v>56.434823520489097</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0.1364680998306802</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>42521.81298122563</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>798.50000301839998</v>
+      </c>
+      <c r="B11" s="4">
+        <v>37.475399991217991</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.85000000053000002</v>
+      </c>
+      <c r="D11" s="4">
+        <v>24.019730004240596</v>
+      </c>
+      <c r="E11" s="4">
+        <v>50.050269989446832</v>
+      </c>
+      <c r="F11" s="4">
+        <v>56.46999996376001</v>
+      </c>
+      <c r="G11" s="4">
+        <v>124.79999995305045</v>
+      </c>
+      <c r="H11" s="4">
+        <v>53.000000338850001</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3.26</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.67000000024999995</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.31999999971999998</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.35000000019999999</v>
+      </c>
+      <c r="M11" s="4">
+        <v>5.0000000099999997E-2</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.36000000165999996</v>
+      </c>
+      <c r="O11" s="4">
+        <v>65.129999974699984</v>
+      </c>
+      <c r="P11" s="4">
+        <v>122.70849989719326</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>126.87059997212732</v>
+      </c>
+      <c r="R11" s="4">
+        <v>7.79</v>
+      </c>
+      <c r="S11" s="4">
+        <v>113.9844001044407</v>
+      </c>
+      <c r="T11" s="4">
+        <v>3.3809999995359998</v>
+      </c>
+      <c r="U11" s="4">
+        <v>1.955000001038</v>
+      </c>
+      <c r="V11" s="4">
+        <v>5.4639999364899996</v>
+      </c>
+      <c r="W11" s="4">
+        <v>32.894014271544172</v>
+      </c>
+      <c r="X11" s="4">
+        <v>8.1981299788049397E-2</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>44021.219642944132</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>4.9999999959999997</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>502.99999504319999</v>
+      </c>
+      <c r="B12" s="4">
+        <v>18.993560071857395</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.54999999951</v>
+      </c>
+      <c r="D12" s="4">
+        <v>34.087049926961399</v>
+      </c>
+      <c r="E12" s="4">
+        <v>53.260570009986807</v>
+      </c>
+      <c r="F12" s="4">
+        <v>100.75000006923</v>
+      </c>
+      <c r="G12" s="4">
+        <v>153.21891015760116</v>
+      </c>
+      <c r="H12" s="4">
+        <v>41.12</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.89000000007000013</v>
+      </c>
+      <c r="K12" s="4">
+        <v>5.9999999979999996E-2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.52999999949999999</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.39999999706000006</v>
+      </c>
+      <c r="O12" s="4">
+        <v>73.469999977040004</v>
+      </c>
+      <c r="P12" s="4">
+        <v>102.06140012791266</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>148.44689995994045</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1.8900000005900002</v>
+      </c>
+      <c r="S12" s="4">
+        <v>91.262229938775135</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0.97400000111899998</v>
+      </c>
+      <c r="U12" s="4">
+        <v>1.0870000007239999</v>
+      </c>
+      <c r="V12" s="4">
+        <v>3.4000006250999998E-2</v>
+      </c>
+      <c r="W12" s="4">
+        <v>11.617749989193346</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0.24327669985764511</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>25630.794557307232</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>661.90000586239989</v>
+      </c>
+      <c r="B13" s="4">
+        <v>17.076269929555387</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5.9170480376177998</v>
+      </c>
+      <c r="E13" s="4">
+        <v>43.605489975169107</v>
+      </c>
+      <c r="F13" s="4">
+        <v>27.04000000265</v>
+      </c>
+      <c r="G13" s="4">
+        <v>76.469699749296296</v>
+      </c>
+      <c r="H13" s="4">
+        <v>78.060000170150005</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.27000000021000004</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.3399999997</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.24000000020000001</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1.2300000052200002</v>
+      </c>
+      <c r="O13" s="4">
+        <v>82.810000011739987</v>
+      </c>
+      <c r="P13" s="4">
+        <v>62.2483100533114</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>16.52876996810474</v>
+      </c>
+      <c r="R13" s="4">
+        <v>3.6700000020400001</v>
+      </c>
+      <c r="S13" s="4">
+        <v>44.803439994624618</v>
+      </c>
+      <c r="T13" s="4">
+        <v>1.585000002034</v>
+      </c>
+      <c r="U13" s="4">
+        <v>1.237999999313</v>
+      </c>
+      <c r="V13" s="4">
+        <v>3.7670000668689996</v>
+      </c>
+      <c r="W13" s="4">
+        <v>13.535241278491934</v>
+      </c>
+      <c r="X13" s="4">
+        <v>5.2151199794687908E-2</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>13909.016088865676</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>1.9999999989999999</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2833.5000069335997</v>
+      </c>
+      <c r="B14" s="4">
+        <v>16.462059977101546</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.77</v>
+      </c>
+      <c r="D14" s="4">
+        <v>113.47209998521019</v>
+      </c>
+      <c r="E14" s="4">
+        <v>29.411690007026028</v>
+      </c>
+      <c r="F14" s="4">
+        <v>184.27</v>
+      </c>
+      <c r="G14" s="4">
+        <v>222.03970214076452</v>
+      </c>
+      <c r="H14" s="4">
+        <v>255.42000047960002</v>
+      </c>
+      <c r="I14" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.72999999964999995</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.31000000009999995</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.63999999949999997</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1.00000000776</v>
+      </c>
+      <c r="O14" s="4">
+        <v>72.099999991519994</v>
+      </c>
+      <c r="P14" s="4">
+        <v>114.14780005517474</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>236.3152</v>
+      </c>
+      <c r="R14" s="4">
+        <v>3.2700000018600002</v>
+      </c>
+      <c r="S14" s="4">
+        <v>105.71739988059502</v>
+      </c>
+      <c r="T14" s="4">
+        <v>6.0810000030909999</v>
+      </c>
+      <c r="U14" s="4">
+        <v>1.928000001884</v>
+      </c>
+      <c r="V14" s="4">
+        <v>46.215999944316991</v>
+      </c>
+      <c r="W14" s="4">
+        <v>48.932604705097958</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0.10697569998956899</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>48248.941357925345</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>715.19999625919991</v>
+      </c>
+      <c r="B15" s="4">
+        <v>17.489589989066765</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1.01000000013</v>
+      </c>
+      <c r="D15" s="4">
+        <v>37.792199953451998</v>
+      </c>
+      <c r="E15" s="4">
+        <v>91.159869999999998</v>
+      </c>
+      <c r="F15" s="4">
+        <v>53.04000002646</v>
+      </c>
+      <c r="G15" s="4">
+        <v>157.17982557253831</v>
+      </c>
+      <c r="H15" s="4">
+        <v>41.669999875249999</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2.58</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.62999999963999997</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.60000000017999999</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.57000000020000008</v>
+      </c>
+      <c r="M15" s="4">
+        <v>9.9999998999999989E-3</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.60999999682000006</v>
+      </c>
+      <c r="O15" s="4">
+        <v>56.009999997859993</v>
+      </c>
+      <c r="P15" s="4">
+        <v>97.499880015824715</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>153.39329992423129</v>
+      </c>
+      <c r="R15" s="4">
+        <v>1.50999999977</v>
+      </c>
+      <c r="S15" s="4">
+        <v>88.213400094809742</v>
+      </c>
+      <c r="T15" s="4">
+        <v>4.6730000003529995</v>
+      </c>
+      <c r="U15" s="4">
+        <v>1.941999999548</v>
+      </c>
+      <c r="V15" s="4">
+        <v>4.8629999575119998</v>
+      </c>
+      <c r="W15" s="4">
+        <v>19.680678820803998</v>
+      </c>
+      <c r="X15" s="4">
+        <v>4.7227199745843496E-2</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>36103.890612243013</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>7.0000000030000002</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>366.39999788720002</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4.3139149999999997</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>78.884551639200055</v>
+      </c>
+      <c r="H16" s="4">
+        <v>74.089999783699994</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.2199999997</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.11999999991999999</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.4099999996</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1.0000002060000013E-2</v>
+      </c>
+      <c r="O16" s="4">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="P16" s="4">
+        <v>46.869700065921307</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>3.7249340000000002</v>
+      </c>
+      <c r="R16" s="4">
+        <v>2.0800000010000002</v>
+      </c>
+      <c r="S16" s="4">
+        <v>38.913959910261411</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0.29900000188799997</v>
+      </c>
+      <c r="U16" s="4">
+        <v>1.2279999991520001</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0.79999995578399996</v>
+      </c>
+      <c r="W16" s="4">
+        <v>3.7875508885920666</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0.1441440997182572</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>13806.974287309677</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>4.9999999959999997</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>326.7</v>
+      </c>
+      <c r="B17" s="4">
+        <v>11.863870047933689</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>57.27487356887864</v>
+      </c>
+      <c r="H17" s="4">
+        <v>61.9100003402</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.26000000031000003</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.2399999998</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.25000000010000001</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.90000000331999996</v>
+      </c>
+      <c r="O17" s="4">
+        <v>79.359999998119989</v>
+      </c>
+      <c r="P17" s="4">
+        <v>46.733120038429703</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>5.804731038823272</v>
+      </c>
+      <c r="R17" s="4">
+        <v>1.68000000082</v>
+      </c>
+      <c r="S17" s="4">
+        <v>37.970959991755997</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0.53699999977000001</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>9.5014838036062788</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0.10302840002009339</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>14154.609046008907</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>4.9999999959999997</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>14847.5</v>
+      </c>
+      <c r="B18" s="4">
+        <v>148.9615</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.33999999915000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3.2174989341473998</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.4186207809529998E-2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>167.72999998216</v>
+      </c>
+      <c r="G18" s="4">
+        <v>172.3997917106995</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1052.27</v>
+      </c>
+      <c r="I18" s="4">
+        <v>25.67</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.62999999963999997</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.25999999977999999</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="N18" s="4">
+        <v>15.76</v>
+      </c>
+      <c r="O18" s="4">
+        <v>45.559999988359998</v>
+      </c>
+      <c r="P18" s="4">
+        <v>330.60320000000002</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>181.41809991161995</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="S18" s="4">
+        <v>325.18130000000002</v>
+      </c>
+      <c r="T18" s="4">
+        <v>3.3870000002069998</v>
+      </c>
+      <c r="U18" s="4">
+        <v>5.258</v>
+      </c>
+      <c r="V18" s="4">
+        <v>1.9419999983579996</v>
+      </c>
+      <c r="W18" s="4">
+        <v>114.22989069973677</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0.5996131001922208</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>114210.81502031136</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>6.0000000039999994</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>1429.9000065408002</v>
+      </c>
+      <c r="B19" s="4">
+        <v>33.301060031806756</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>7.2703589259065993</v>
+      </c>
+      <c r="E19" s="4">
+        <v>62.721309964346304</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>154.5946109726728</v>
+      </c>
+      <c r="H19" s="4">
+        <v>248.50999956500002</v>
+      </c>
+      <c r="I19" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.48000000029999995</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.83999999970000017</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>3.8599999976600006</v>
+      </c>
+      <c r="O19" s="4">
+        <v>82.390000016599998</v>
+      </c>
+      <c r="P19" s="4">
+        <v>156.28909987283961</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>157.70990010690659</v>
+      </c>
+      <c r="R19" s="4">
+        <v>1.32999999904</v>
+      </c>
+      <c r="S19" s="4">
+        <v>144.37960004069151</v>
+      </c>
+      <c r="T19" s="4">
+        <v>3.1600000024499999</v>
+      </c>
+      <c r="U19" s="4">
+        <v>1.554999998867</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>37.416188968067452</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0.47732699967950176</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>21963.811648156738</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>2.9999999979999998</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>1793.0000016280001</v>
+      </c>
+      <c r="B20" s="4">
+        <v>78.008429963259644</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.44000000067</v>
+      </c>
+      <c r="D20" s="4">
+        <v>71.795410020313199</v>
+      </c>
+      <c r="E20" s="4">
+        <v>47.942419969980278</v>
+      </c>
+      <c r="F20" s="4">
+        <v>163.74000001373</v>
+      </c>
+      <c r="G20" s="4">
+        <v>211.37210467367123</v>
+      </c>
+      <c r="H20" s="4">
+        <v>116.41999974244999</v>
+      </c>
+      <c r="I20" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.65000000044999995</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.33000000007999997</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.60999999979999997</v>
+      </c>
+      <c r="M20" s="4">
+        <v>9.9999999899999997E-2</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1.6700000024400001</v>
+      </c>
+      <c r="O20" s="4">
+        <v>83.140000012039991</v>
+      </c>
+      <c r="P20" s="4">
+        <v>138.66159990467747</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>211.89180001311368</v>
+      </c>
+      <c r="R20" s="4">
+        <v>2.6200000031900004</v>
+      </c>
+      <c r="S20" s="4">
+        <v>130.99419986732377</v>
+      </c>
+      <c r="T20" s="4">
+        <v>3.1330000027459999</v>
+      </c>
+      <c r="U20" s="4">
+        <v>1.728999999107</v>
+      </c>
+      <c r="V20" s="4">
+        <v>135.50299999999999</v>
+      </c>
+      <c r="W20" s="4">
+        <v>71.133884768423371</v>
+      </c>
+      <c r="X20" s="4">
+        <v>6.4686100310834896E-2</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>50085.059939434905</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>2.9999999979999998</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>342.4000051264</v>
+      </c>
+      <c r="B21" s="4">
+        <v>32.668259971728716</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.87000000048000004</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2.0680049771862001</v>
+      </c>
+      <c r="E21" s="4">
+        <v>37.177069966960943</v>
+      </c>
+      <c r="F21" s="4">
+        <v>13.029999997120003</v>
+      </c>
+      <c r="G21" s="4">
+        <v>66.058048038408231</v>
+      </c>
+      <c r="H21" s="4">
+        <v>54.049999733</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.29999999990999998</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.19000000022000002</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1.9500000021200001</v>
+      </c>
+      <c r="O21" s="4">
+        <v>43.790000012959993</v>
+      </c>
+      <c r="P21" s="4">
+        <v>55.060020098692554</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>14.096430048348619</v>
+      </c>
+      <c r="R21" s="4">
+        <v>1.66000000146</v>
+      </c>
+      <c r="S21" s="4">
+        <v>48.058879992538095</v>
+      </c>
+      <c r="T21" s="4">
+        <v>1.8200000028960002</v>
+      </c>
+      <c r="U21" s="4">
+        <v>1.489999999955</v>
+      </c>
+      <c r="V21" s="4">
+        <v>15.020999967902</v>
+      </c>
+      <c r="W21" s="4">
+        <v>26.809215316790091</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0.19808460016657692</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>13382.072164897565</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>7.0000000030000002</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>1011.4999986687999</v>
+      </c>
+      <c r="B22" s="4">
+        <v>31.530289937492569</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.50999999961000009</v>
+      </c>
+      <c r="D22" s="4">
+        <v>69.4608999103164</v>
+      </c>
+      <c r="E22" s="4">
+        <v>48.770210023056947</v>
+      </c>
+      <c r="F22" s="4">
+        <v>86.960000016700008</v>
+      </c>
+      <c r="G22" s="4">
+        <v>203.92673378234986</v>
+      </c>
+      <c r="H22" s="4">
+        <v>79.479999572299988</v>
+      </c>
+      <c r="I22" s="4">
+        <v>3.35</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.89000000007000013</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.58999999982000007</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.68000000020000007</v>
+      </c>
+      <c r="M22" s="4">
+        <v>9.9999998999999989E-3</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.37999999936000001</v>
+      </c>
+      <c r="O22" s="4">
+        <v>72.149999975839989</v>
+      </c>
+      <c r="P22" s="4">
+        <v>143.43989995077177</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>212.99939997679155</v>
+      </c>
+      <c r="R22" s="4">
+        <v>2.9699999984800001</v>
+      </c>
+      <c r="S22" s="4">
+        <v>131.37530002888161</v>
+      </c>
+      <c r="T22" s="4">
+        <v>4.1959999967410004</v>
+      </c>
+      <c r="U22" s="4">
+        <v>1.7330000008790001</v>
+      </c>
+      <c r="V22" s="4">
+        <v>7.7400000600209991</v>
+      </c>
+      <c r="W22" s="4">
+        <v>25.965715701522026</v>
+      </c>
+      <c r="X22" s="4">
+        <v>4.32453000855412E-2</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>22503.909490829981</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>6.0000000039999994</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>326.7</v>
+      </c>
+      <c r="B23" s="4">
+        <v>15.462940052658601</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>54.118901281665046</v>
+      </c>
+      <c r="H23" s="4">
+        <v>58.59999980405</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.33000000007999997</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.1999999995</v>
+      </c>
+      <c r="M23" s="4">
+        <v>2.0000000099999998E-2</v>
+      </c>
+      <c r="N23" s="4">
+        <v>4.9999997460000001E-2</v>
+      </c>
+      <c r="O23" s="4">
+        <v>64.560000026599994</v>
+      </c>
+      <c r="P23" s="4">
+        <v>36.437350000000002</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>48.557289944935796</v>
+      </c>
+      <c r="R23" s="4">
+        <v>1.84000000219</v>
+      </c>
+      <c r="S23" s="4">
+        <v>30.835909999999998</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="U23" s="4">
+        <v>1.051000001852</v>
+      </c>
+      <c r="V23" s="4">
+        <v>1.1850000225819999</v>
+      </c>
+      <c r="W23" s="4">
+        <v>11.607601221703417</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0.59233280014505196</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>8539.2612314799026</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>9.0000000010000001</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>331.70000514719999</v>
+      </c>
+      <c r="B24" s="4">
+        <v>4.7843270273681249</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.9631009451833998</v>
+      </c>
+      <c r="E24" s="4">
+        <v>29.254270038557308</v>
+      </c>
+      <c r="F24" s="4">
+        <v>12.08000006606</v>
+      </c>
+      <c r="G24" s="4">
+        <v>54.109359363849343</v>
+      </c>
+      <c r="H24" s="4">
+        <v>72.119999495149997</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.37000000022000001</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0.23000000030000001</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>-4.7600000052661073E-9</v>
+      </c>
+      <c r="O24" s="4">
+        <v>66.599999986520004</v>
+      </c>
+      <c r="P24" s="4">
+        <v>65.841690052327905</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>66.399870027690014</v>
+      </c>
+      <c r="R24" s="4">
+        <v>2.0200000029199998</v>
+      </c>
+      <c r="S24" s="4">
+        <v>53.783670004706238</v>
+      </c>
+      <c r="T24" s="4">
+        <v>1.6579999980410001</v>
+      </c>
+      <c r="U24" s="4">
+        <v>1.33700000048</v>
+      </c>
+      <c r="V24" s="4">
+        <v>8.396000029184</v>
+      </c>
+      <c r="W24" s="4">
+        <v>4.9319095741251848</v>
+      </c>
+      <c r="X24" s="4">
+        <v>0.14889709978660509</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>17789.56260524386</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>2.9999999979999998</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>501.4000061744</v>
+      </c>
+      <c r="B25" s="4">
+        <v>16.450510012086887</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>7.3471679962950001</v>
+      </c>
+      <c r="E25" s="4">
+        <v>10.50850998641018</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>93.394421506145846</v>
+      </c>
+      <c r="H25" s="4">
+        <v>71.159999529049998</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.45000000042999999</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.29000000011999999</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0.57000000020000008</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>9.9999999680000007E-2</v>
+      </c>
+      <c r="O25" s="4">
+        <v>60.670000012579997</v>
+      </c>
+      <c r="P25" s="4">
+        <v>68.137140015506247</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>103.68399988764733</v>
+      </c>
+      <c r="R25" s="4">
+        <v>2.72999999967</v>
+      </c>
+      <c r="S25" s="4">
+        <v>57.558299949132916</v>
+      </c>
+      <c r="T25" s="4">
+        <v>1.7019999985410001</v>
+      </c>
+      <c r="U25" s="4">
+        <v>2.4589999980530002</v>
+      </c>
+      <c r="V25" s="4">
+        <v>2.9429999552279997</v>
+      </c>
+      <c r="W25" s="4">
+        <v>12.588324229321094</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0.32163739988621443</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>24478.281776692205</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>2.9999999979999998</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>879.09999770479999</v>
+      </c>
+      <c r="B26" s="4">
+        <v>76.482699965667123</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.79999999977000003</v>
+      </c>
+      <c r="D26" s="4">
+        <v>54.451979910637803</v>
+      </c>
+      <c r="E26" s="4">
+        <v>45.281310033778944</v>
+      </c>
+      <c r="F26" s="4">
+        <v>76.679999984890003</v>
+      </c>
+      <c r="G26" s="4">
+        <v>230.9100911736908</v>
+      </c>
+      <c r="H26" s="4">
+        <v>47.000000045149996</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3.37</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.70999999984999995</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.80000000010000005</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1.1600000052999999</v>
+      </c>
+      <c r="O26" s="4">
+        <v>57.630000020299995</v>
+      </c>
+      <c r="P26" s="4">
+        <v>163.9209998717364</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>232.17639995731437</v>
+      </c>
+      <c r="R26" s="4">
+        <v>1.67000000114</v>
+      </c>
+      <c r="S26" s="4">
+        <v>154.27699998392447</v>
+      </c>
+      <c r="T26" s="4">
+        <v>2.7749999980749998</v>
+      </c>
+      <c r="U26" s="4">
+        <v>2.1309999978950001</v>
+      </c>
+      <c r="V26" s="4">
+        <v>7.7940000380659997</v>
+      </c>
+      <c r="W26" s="4">
+        <v>69.805945733270647</v>
+      </c>
+      <c r="X26" s="4">
+        <v>0.7009841</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>31984.725588687845</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>4.9999999959999997</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>1082.3000070808</v>
+      </c>
+      <c r="B27" s="4">
+        <v>103.70690004821303</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.83000000058000001</v>
+      </c>
+      <c r="D27" s="4">
+        <v>55.186159931946605</v>
+      </c>
+      <c r="E27" s="4">
+        <v>25.855570005848197</v>
+      </c>
+      <c r="F27" s="4">
+        <v>78.640000001710007</v>
+      </c>
+      <c r="G27" s="4">
+        <v>142.42704246173116</v>
+      </c>
+      <c r="H27" s="4">
+        <v>51.700000174099998</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.36000000032000001</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.70000000007999996</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0.52999999949999999</v>
+      </c>
+      <c r="M27" s="4">
+        <v>8.000000010000001E-2</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1.41000000046</v>
+      </c>
+      <c r="O27" s="4">
+        <v>92.96</v>
+      </c>
+      <c r="P27" s="4">
+        <v>83.848260077278013</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>9.4425349048086087</v>
+      </c>
+      <c r="R27" s="4">
+        <v>1.9000000002699999</v>
+      </c>
+      <c r="S27" s="4">
+        <v>57.997699924706481</v>
+      </c>
+      <c r="T27" s="4">
+        <v>5.8830000008410002</v>
+      </c>
+      <c r="U27" s="4">
+        <v>1.6119999985039999</v>
+      </c>
+      <c r="V27" s="4">
+        <v>9.2130000558449989</v>
+      </c>
+      <c r="W27" s="4">
+        <v>87.176210582794255</v>
+      </c>
+      <c r="X27" s="4">
+        <v>0.35967420027892422</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>57071.204309430344</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>8.0000000020000002</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>6.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>